--- a/app/routes/generate-reports/.server/workbooks/report.xlsx
+++ b/app/routes/generate-reports/.server/workbooks/report.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Лист 1'!$A$9:$U$269</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="384">
   <si>
     <t>№ п/п</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>За месяц</t>
-  </si>
-  <si>
-    <t>G3+RF</t>
   </si>
   <si>
     <t xml:space="preserve">Всего </t>
@@ -1343,7 +1340,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1410,6 +1407,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1459,7 +1480,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1573,15 +1594,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1589,9 +1601,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1981,7 +2011,7 @@
   <dimension ref="A1:AMI273"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2009,43 +2039,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T1" s="44" t="s">
+      <c r="T1" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="44"/>
+      <c r="U1" s="41"/>
     </row>
     <row r="2" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
     </row>
     <row r="3" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
     </row>
     <row r="4" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
     </row>
     <row r="5" spans="1:22" ht="47.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:22" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2066,12 +2096,12 @@
       <c r="G6" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
       <c r="L6" s="43" t="s">
         <v>4</v>
       </c>
@@ -2080,7 +2110,7 @@
       <c r="O6" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="43" t="s">
+      <c r="P6" s="48" t="s">
         <v>21</v>
       </c>
       <c r="Q6" s="43" t="s">
@@ -2100,7 +2130,7 @@
       <c r="D7" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="45" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="43" t="s">
@@ -2129,7 +2159,7 @@
         <v>30</v>
       </c>
       <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
+      <c r="P7" s="49"/>
       <c r="Q7" s="43" t="s">
         <v>31</v>
       </c>
@@ -2156,20 +2186,18 @@
       <c r="M8" s="43"/>
       <c r="N8" s="43"/>
       <c r="O8" s="43"/>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="50"/>
+      <c r="Q8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="R8" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="S8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U8" s="43"/>
       <c r="V8" s="2"/>
@@ -2245,19 +2273,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G10" s="3">
         <v>180</v>
@@ -2275,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O10" s="13">
         <f t="shared" ref="O10:O73" si="2">H10-L10</f>
@@ -2296,19 +2324,19 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="G11" s="3">
         <v>165</v>
@@ -2326,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O11" s="13">
         <f t="shared" si="2"/>
@@ -2347,19 +2375,19 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G12" s="3">
         <v>172</v>
@@ -2377,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O12" s="13">
         <f t="shared" si="2"/>
@@ -2398,19 +2426,19 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="G13" s="3">
         <v>197</v>
@@ -2428,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O13" s="13">
         <f t="shared" si="2"/>
@@ -2449,19 +2477,19 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="G14" s="3">
         <v>48</v>
@@ -2479,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O14" s="13">
         <f t="shared" si="2"/>
@@ -2500,19 +2528,19 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G15" s="3">
         <v>182</v>
@@ -2530,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O15" s="13">
         <f t="shared" si="2"/>
@@ -2551,19 +2579,19 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="G16" s="3">
         <v>109</v>
@@ -2581,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O16" s="13">
         <f t="shared" si="2"/>
@@ -2602,17 +2630,17 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G17" s="3">
         <v>2</v>
@@ -2630,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O17" s="13">
         <f t="shared" si="2"/>
@@ -2651,19 +2679,19 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E18" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G18" s="3">
         <v>167</v>
@@ -2681,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O18" s="13">
         <f t="shared" si="2"/>
@@ -2702,19 +2730,19 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="E19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G19" s="3">
         <v>165</v>
@@ -2732,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O19" s="13">
         <f t="shared" si="2"/>
@@ -2753,19 +2781,19 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20" s="3">
         <v>26</v>
@@ -2783,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O20" s="13">
         <f t="shared" si="2"/>
@@ -2804,19 +2832,19 @@
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="G21" s="3">
         <v>151</v>
@@ -2834,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O21" s="13">
         <f t="shared" si="2"/>
@@ -2855,19 +2883,19 @@
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G22" s="3">
         <v>363</v>
@@ -2885,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="13">
         <f t="shared" si="2"/>
@@ -2906,19 +2934,19 @@
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G23" s="3">
         <v>132</v>
@@ -2936,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="13">
         <f t="shared" si="2"/>
@@ -2957,19 +2985,19 @@
         <v>15</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G24" s="3">
         <v>97</v>
@@ -2987,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O24" s="13">
         <f t="shared" si="2"/>
@@ -3008,19 +3036,19 @@
         <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="E25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G25" s="3">
         <v>115</v>
@@ -3038,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O25" s="13">
         <f t="shared" si="2"/>
@@ -3059,19 +3087,19 @@
         <v>17</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E26" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G26" s="3">
         <v>130</v>
@@ -3089,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O26" s="13">
         <f t="shared" si="2"/>
@@ -3110,19 +3138,19 @@
         <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="E27" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G27" s="3">
         <v>328</v>
@@ -3140,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O27" s="13">
         <f t="shared" si="2"/>
@@ -3161,19 +3189,19 @@
         <v>19</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E28" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G28" s="3">
         <v>2</v>
@@ -3191,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O28" s="13">
         <f t="shared" si="2"/>
@@ -3212,19 +3240,19 @@
         <v>20</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G29" s="3">
         <v>76</v>
@@ -3242,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="N29" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O29" s="13">
         <f t="shared" si="2"/>
@@ -3263,17 +3291,17 @@
         <v>21</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G30" s="3">
         <v>2</v>
@@ -3291,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="N30" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O30" s="13">
         <f t="shared" si="2"/>
@@ -3315,16 +3343,16 @@
         <v>13</v>
       </c>
       <c r="C31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E31" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G31" s="3">
         <v>17</v>
@@ -3364,16 +3392,16 @@
         <v>14</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E32" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G32" s="3">
         <v>118</v>
@@ -3391,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="N32" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O32" s="13">
         <f t="shared" si="2"/>
@@ -3412,19 +3440,19 @@
         <v>24</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E33" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G33" s="3">
         <v>27</v>
@@ -3442,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O33" s="13">
         <f t="shared" si="2"/>
@@ -3463,19 +3491,19 @@
         <v>25</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="E34" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G34" s="3">
         <v>358</v>
@@ -3493,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O34" s="13">
         <f t="shared" si="2"/>
@@ -3514,19 +3542,19 @@
         <v>26</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D35" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="G35" s="3">
         <v>181</v>
@@ -3544,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O35" s="13">
         <f t="shared" si="2"/>
@@ -3565,19 +3593,19 @@
         <v>27</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C36" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E36" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G36" s="3">
         <v>205</v>
@@ -3595,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O36" s="13">
         <f t="shared" si="2"/>
@@ -3616,19 +3644,19 @@
         <v>28</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G37" s="3">
         <v>179</v>
@@ -3646,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O37" s="13">
         <f t="shared" si="2"/>
@@ -3667,19 +3695,19 @@
         <v>29</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G38" s="3">
         <v>257</v>
@@ -3697,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O38" s="13">
         <f t="shared" si="2"/>
@@ -3718,19 +3746,19 @@
         <v>30</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C39" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E39" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G39" s="3">
         <v>109</v>
@@ -3748,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="N39" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O39" s="13">
         <f t="shared" si="2"/>
@@ -3769,19 +3797,19 @@
         <v>31</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C40" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E40" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G40" s="3">
         <v>170</v>
@@ -3799,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O40" s="13">
         <f t="shared" si="2"/>
@@ -3820,19 +3848,19 @@
         <v>32</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E41" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G41" s="3">
         <v>185</v>
@@ -3850,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O41" s="13">
         <f t="shared" si="2"/>
@@ -3871,19 +3899,19 @@
         <v>33</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C42" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E42" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G42" s="3">
         <v>206</v>
@@ -3901,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O42" s="13">
         <f t="shared" si="2"/>
@@ -3922,19 +3950,19 @@
         <v>34</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C43" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E43" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G43" s="3">
         <v>301</v>
@@ -3952,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O43" s="13">
         <f t="shared" si="2"/>
@@ -3973,19 +4001,19 @@
         <v>35</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G44" s="3">
         <v>73</v>
@@ -4003,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="N44" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O44" s="13">
         <f t="shared" si="2"/>
@@ -4024,17 +4052,17 @@
         <v>36</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G45" s="3">
         <v>4</v>
@@ -4052,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O45" s="13">
         <f t="shared" si="2"/>
@@ -4073,19 +4101,19 @@
         <v>37</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G46" s="3">
         <v>168</v>
@@ -4103,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O46" s="13">
         <f t="shared" si="2"/>
@@ -4124,19 +4152,19 @@
         <v>38</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C47" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E47" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G47" s="3">
         <v>263</v>
@@ -4154,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O47" s="13">
         <f t="shared" si="2"/>
@@ -4175,19 +4203,19 @@
         <v>39</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E48" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G48" s="3">
         <v>192</v>
@@ -4205,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O48" s="13">
         <f t="shared" si="2"/>
@@ -4226,19 +4254,19 @@
         <v>40</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E49" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G49" s="3">
         <v>253</v>
@@ -4256,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O49" s="13">
         <f t="shared" si="2"/>
@@ -4277,19 +4305,19 @@
         <v>41</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E50" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G50" s="3">
         <v>230</v>
@@ -4307,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O50" s="13">
         <f t="shared" si="2"/>
@@ -4328,19 +4356,19 @@
         <v>42</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D51" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="G51" s="3">
         <v>132</v>
@@ -4358,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O51" s="13">
         <f t="shared" si="2"/>
@@ -4379,19 +4407,19 @@
         <v>43</v>
       </c>
       <c r="B52" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="G52" s="6">
         <v>91</v>
@@ -4409,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="N52" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O52" s="13">
         <f t="shared" si="2"/>
@@ -4429,19 +4457,19 @@
         <v>44</v>
       </c>
       <c r="B53" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="G53" s="6">
         <v>38</v>
@@ -4459,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="N53" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O53" s="13">
         <f t="shared" si="2"/>
@@ -4479,19 +4507,19 @@
         <v>45</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E54" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G54" s="3">
         <v>251</v>
@@ -4509,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O54" s="13">
         <f t="shared" si="2"/>
@@ -4530,19 +4558,19 @@
         <v>46</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E55" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F55" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G55" s="3">
         <v>124</v>
@@ -4560,7 +4588,7 @@
         <v>0</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O55" s="13">
         <f t="shared" si="2"/>
@@ -4581,19 +4609,19 @@
         <v>47</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F56" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="G56" s="3">
         <v>34</v>
@@ -4611,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="N56" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O56" s="13">
         <f t="shared" si="2"/>
@@ -4632,19 +4660,19 @@
         <v>48</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G57" s="3">
         <v>112</v>
@@ -4662,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="N57" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O57" s="13">
         <f t="shared" si="2"/>
@@ -4683,19 +4711,19 @@
         <v>49</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E58" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G58" s="3">
         <v>213</v>
@@ -4713,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O58" s="13">
         <f t="shared" si="2"/>
@@ -4734,19 +4762,19 @@
         <v>50</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C59" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E59" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F59" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G59" s="3">
         <v>154</v>
@@ -4764,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O59" s="13">
         <f t="shared" si="2"/>
@@ -4785,19 +4813,19 @@
         <v>51</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E60" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G60" s="3">
         <v>220</v>
@@ -4815,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O60" s="13">
         <f t="shared" si="2"/>
@@ -4836,19 +4864,19 @@
         <v>52</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C61" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E61" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G61" s="3">
         <v>87</v>
@@ -4866,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O61" s="13">
         <f t="shared" si="2"/>
@@ -4887,19 +4915,19 @@
         <v>53</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C62" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E62" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G62" s="3">
         <v>7</v>
@@ -4917,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="N62" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O62" s="13">
         <f t="shared" si="2"/>
@@ -4938,19 +4966,19 @@
         <v>54</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F63" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="G63" s="3">
         <v>142</v>
@@ -4968,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O63" s="13">
         <f t="shared" si="2"/>
@@ -4989,19 +5017,19 @@
         <v>55</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C64" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E64" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G64" s="3">
         <v>130</v>
@@ -5019,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O64" s="13">
         <f t="shared" si="2"/>
@@ -5040,17 +5068,17 @@
         <v>56</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G65" s="3">
         <v>1</v>
@@ -5068,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O65" s="13">
         <f t="shared" si="2"/>
@@ -5089,17 +5117,17 @@
         <v>57</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G66" s="3">
         <v>1</v>
@@ -5117,7 +5145,7 @@
         <v>0</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O66" s="13">
         <f t="shared" si="2"/>
@@ -5138,17 +5166,17 @@
         <v>58</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G67" s="3">
         <v>5</v>
@@ -5166,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O67" s="13">
         <f t="shared" si="2"/>
@@ -5187,17 +5215,17 @@
         <v>59</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G68" s="3">
         <v>1</v>
@@ -5215,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O68" s="13">
         <f t="shared" si="2"/>
@@ -5236,17 +5264,17 @@
         <v>60</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G69" s="3">
         <v>1</v>
@@ -5264,7 +5292,7 @@
         <v>0</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O69" s="13">
         <f t="shared" si="2"/>
@@ -5285,17 +5313,17 @@
         <v>61</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G70" s="3">
         <v>1</v>
@@ -5313,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O70" s="13">
         <f t="shared" si="2"/>
@@ -5334,17 +5362,17 @@
         <v>62</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G71" s="3">
         <v>2</v>
@@ -5362,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O71" s="13">
         <f t="shared" si="2"/>
@@ -5383,17 +5411,17 @@
         <v>63</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G72" s="3">
         <v>2</v>
@@ -5411,7 +5439,7 @@
         <v>0</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O72" s="13">
         <f t="shared" si="2"/>
@@ -5432,17 +5460,17 @@
         <v>64</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G73" s="3">
         <v>2</v>
@@ -5460,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O73" s="13">
         <f t="shared" si="2"/>
@@ -5481,17 +5509,17 @@
         <v>65</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G74" s="3">
         <v>1</v>
@@ -5509,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O74" s="13">
         <f t="shared" ref="O74:O137" si="6">H74-L74</f>
@@ -5530,19 +5558,19 @@
         <v>66</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C75" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>145</v>
-      </c>
       <c r="E75" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G75" s="3">
         <v>92</v>
@@ -5560,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O75" s="13">
         <f t="shared" si="6"/>
@@ -5581,19 +5609,19 @@
         <v>67</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D76" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C76" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D76" s="5" t="s">
+      <c r="E76" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F76" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="G76" s="3">
         <v>198</v>
@@ -5611,7 +5639,7 @@
         <v>0</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O76" s="13">
         <f t="shared" si="6"/>
@@ -5632,17 +5660,17 @@
         <v>68</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G77" s="3">
         <v>1</v>
@@ -5660,7 +5688,7 @@
         <v>0</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O77" s="13">
         <f t="shared" si="6"/>
@@ -5681,19 +5709,19 @@
         <v>69</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G78" s="3">
         <v>199</v>
@@ -5711,7 +5739,7 @@
         <v>0</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O78" s="13">
         <f t="shared" si="6"/>
@@ -5732,19 +5760,19 @@
         <v>70</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G79" s="3">
         <v>181</v>
@@ -5762,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="N79" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O79" s="13">
         <f t="shared" si="6"/>
@@ -5783,19 +5811,19 @@
         <v>71</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G80" s="3">
         <v>0</v>
@@ -5832,17 +5860,17 @@
         <v>72</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G81" s="3">
         <v>1</v>
@@ -5860,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="N81" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O81" s="13">
         <f t="shared" si="6"/>
@@ -5881,19 +5909,19 @@
         <v>73</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E82" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F82" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G82" s="3">
         <v>132</v>
@@ -5911,7 +5939,7 @@
         <v>0</v>
       </c>
       <c r="N82" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O82" s="13">
         <f t="shared" si="6"/>
@@ -5932,19 +5960,19 @@
         <v>74</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E83" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F83" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G83" s="3">
         <v>108</v>
@@ -5962,7 +5990,7 @@
         <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O83" s="13">
         <f t="shared" si="6"/>
@@ -5983,19 +6011,19 @@
         <v>75</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G84" s="3">
         <v>455</v>
@@ -6013,7 +6041,7 @@
         <v>0</v>
       </c>
       <c r="N84" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O84" s="13">
         <f t="shared" si="6"/>
@@ -6034,19 +6062,19 @@
         <v>76</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F85" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>159</v>
       </c>
       <c r="G85" s="3">
         <v>269</v>
@@ -6064,7 +6092,7 @@
         <v>0</v>
       </c>
       <c r="N85" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O85" s="13">
         <f t="shared" si="6"/>
@@ -6085,19 +6113,19 @@
         <v>77</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D86" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C86" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>161</v>
-      </c>
       <c r="E86" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G86" s="3">
         <v>328</v>
@@ -6115,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="N86" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O86" s="13">
         <f t="shared" si="6"/>
@@ -6136,19 +6164,19 @@
         <v>78</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G87" s="3">
         <v>220</v>
@@ -6166,7 +6194,7 @@
         <v>0</v>
       </c>
       <c r="N87" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O87" s="13">
         <f t="shared" si="6"/>
@@ -6187,19 +6215,19 @@
         <v>79</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C88" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D88" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E88" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G88" s="3">
         <v>126</v>
@@ -6217,7 +6245,7 @@
         <v>0</v>
       </c>
       <c r="N88" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O88" s="13">
         <f t="shared" si="6"/>
@@ -6238,19 +6266,19 @@
         <v>80</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C89" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D89" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D89" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E89" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F89" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G89" s="3">
         <v>291</v>
@@ -6268,7 +6296,7 @@
         <v>0</v>
       </c>
       <c r="N89" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O89" s="13">
         <f t="shared" si="6"/>
@@ -6289,19 +6317,19 @@
         <v>81</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C90" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D90" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D90" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E90" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G90" s="3">
         <v>3</v>
@@ -6338,19 +6366,19 @@
         <v>82</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E91" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F91" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G91" s="3">
         <v>153</v>
@@ -6368,7 +6396,7 @@
         <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O91" s="13">
         <f t="shared" si="6"/>
@@ -6389,19 +6417,19 @@
         <v>83</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C92" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D92" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E92" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G92" s="3">
         <v>91</v>
@@ -6419,7 +6447,7 @@
         <v>0</v>
       </c>
       <c r="N92" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O92" s="13">
         <f t="shared" si="6"/>
@@ -6440,19 +6468,19 @@
         <v>84</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C93" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D93" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D93" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E93" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G93" s="3">
         <v>178</v>
@@ -6470,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="N93" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O93" s="13">
         <f t="shared" si="6"/>
@@ -6491,19 +6519,19 @@
         <v>85</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G94" s="3">
         <v>43</v>
@@ -6521,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="N94" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O94" s="13">
         <f t="shared" si="6"/>
@@ -6542,19 +6570,19 @@
         <v>86</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C95" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D95" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D95" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E95" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G95" s="3">
         <v>148</v>
@@ -6572,7 +6600,7 @@
         <v>0</v>
       </c>
       <c r="N95" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O95" s="13">
         <f t="shared" si="6"/>
@@ -6593,19 +6621,19 @@
         <v>87</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C96" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D96" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D96" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E96" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G96" s="3">
         <v>91</v>
@@ -6623,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="N96" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O96" s="13">
         <f t="shared" si="6"/>
@@ -6644,19 +6672,19 @@
         <v>88</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E97" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F97" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G97" s="3">
         <v>196</v>
@@ -6674,7 +6702,7 @@
         <v>0</v>
       </c>
       <c r="N97" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O97" s="13">
         <f t="shared" si="6"/>
@@ -6695,19 +6723,19 @@
         <v>89</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C98" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D98" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D98" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E98" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G98" s="3">
         <v>183</v>
@@ -6725,7 +6753,7 @@
         <v>0</v>
       </c>
       <c r="N98" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O98" s="13">
         <f t="shared" si="6"/>
@@ -6746,19 +6774,19 @@
         <v>90</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C99" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D99" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D99" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E99" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G99" s="3">
         <v>494</v>
@@ -6776,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="N99" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O99" s="13">
         <f t="shared" si="6"/>
@@ -6797,19 +6825,19 @@
         <v>91</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C100" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D100" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D100" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E100" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G100" s="3">
         <v>89</v>
@@ -6827,7 +6855,7 @@
         <v>0</v>
       </c>
       <c r="N100" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O100" s="13">
         <f t="shared" si="6"/>
@@ -6848,19 +6876,19 @@
         <v>92</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C101" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D101" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D101" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E101" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G101" s="3">
         <v>228</v>
@@ -6878,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="N101" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O101" s="13">
         <f t="shared" si="6"/>
@@ -6899,19 +6927,19 @@
         <v>93</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G102" s="3">
         <v>53</v>
@@ -6929,7 +6957,7 @@
         <v>0</v>
       </c>
       <c r="N102" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O102" s="13">
         <f t="shared" si="6"/>
@@ -6950,19 +6978,19 @@
         <v>94</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G103" s="3">
         <v>157</v>
@@ -6980,7 +7008,7 @@
         <v>0</v>
       </c>
       <c r="N103" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O103" s="13">
         <f t="shared" si="6"/>
@@ -7001,19 +7029,19 @@
         <v>95</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G104" s="3">
         <v>61</v>
@@ -7031,7 +7059,7 @@
         <v>0</v>
       </c>
       <c r="N104" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O104" s="13">
         <f t="shared" si="6"/>
@@ -7052,19 +7080,19 @@
         <v>96</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G105" s="3">
         <v>212</v>
@@ -7082,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="N105" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O105" s="13">
         <f t="shared" si="6"/>
@@ -7103,19 +7131,19 @@
         <v>97</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E106" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F106" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G106" s="3">
         <v>169</v>
@@ -7133,7 +7161,7 @@
         <v>0</v>
       </c>
       <c r="N106" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O106" s="13">
         <f t="shared" si="6"/>
@@ -7154,17 +7182,17 @@
         <v>98</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G107" s="3">
         <v>2</v>
@@ -7182,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="N107" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O107" s="13">
         <f t="shared" si="6"/>
@@ -7203,19 +7231,19 @@
         <v>99</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G108" s="3">
         <v>1</v>
@@ -7233,7 +7261,7 @@
         <v>0</v>
       </c>
       <c r="N108" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O108" s="13">
         <f t="shared" si="6"/>
@@ -7254,17 +7282,17 @@
         <v>100</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G109" s="3">
         <v>1</v>
@@ -7282,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="N109" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O109" s="13">
         <f t="shared" si="6"/>
@@ -7303,17 +7331,17 @@
         <v>101</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G110" s="3">
         <v>1</v>
@@ -7331,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="N110" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O110" s="13">
         <f t="shared" si="6"/>
@@ -7352,19 +7380,19 @@
         <v>102</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G111" s="3">
         <v>46</v>
@@ -7382,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="N111" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O111" s="13">
         <f t="shared" si="6"/>
@@ -7403,19 +7431,19 @@
         <v>103</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G112" s="3">
         <v>324</v>
@@ -7433,7 +7461,7 @@
         <v>0</v>
       </c>
       <c r="N112" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O112" s="13">
         <f t="shared" si="6"/>
@@ -7454,17 +7482,17 @@
         <v>104</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G113" s="3">
         <v>1</v>
@@ -7482,7 +7510,7 @@
         <v>0</v>
       </c>
       <c r="N113" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O113" s="13">
         <f t="shared" si="6"/>
@@ -7503,17 +7531,17 @@
         <v>105</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G114" s="3">
         <v>3</v>
@@ -7531,7 +7559,7 @@
         <v>0</v>
       </c>
       <c r="N114" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O114" s="13">
         <f t="shared" si="6"/>
@@ -7552,19 +7580,19 @@
         <v>106</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G115" s="3">
         <v>334</v>
@@ -7582,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="N115" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O115" s="13">
         <f t="shared" si="6"/>
@@ -7603,17 +7631,17 @@
         <v>107</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G116" s="3">
         <v>2</v>
@@ -7631,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="N116" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O116" s="13">
         <f t="shared" si="6"/>
@@ -7652,19 +7680,19 @@
         <v>108</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G117" s="3">
         <v>2</v>
@@ -7701,17 +7729,17 @@
         <v>109</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G118" s="3">
         <v>3</v>
@@ -7729,7 +7757,7 @@
         <v>0</v>
       </c>
       <c r="N118" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O118" s="13">
         <f t="shared" si="6"/>
@@ -7750,19 +7778,19 @@
         <v>110</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E119" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F119" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G119" s="3">
         <v>179</v>
@@ -7780,7 +7808,7 @@
         <v>0</v>
       </c>
       <c r="N119" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O119" s="13">
         <f t="shared" si="6"/>
@@ -7801,19 +7829,19 @@
         <v>111</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E120" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F120" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F120" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G120" s="3">
         <v>175</v>
@@ -7831,7 +7859,7 @@
         <v>0</v>
       </c>
       <c r="N120" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O120" s="13">
         <f t="shared" si="6"/>
@@ -7852,19 +7880,19 @@
         <v>112</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G121" s="3">
         <v>110</v>
@@ -7882,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="N121" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O121" s="13">
         <f t="shared" si="6"/>
@@ -7903,19 +7931,19 @@
         <v>113</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G122" s="3">
         <v>54</v>
@@ -7933,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="N122" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O122" s="13">
         <f t="shared" si="6"/>
@@ -7954,17 +7982,17 @@
         <v>114</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G123" s="3">
         <v>1</v>
@@ -7982,7 +8010,7 @@
         <v>0</v>
       </c>
       <c r="N123" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O123" s="13">
         <f t="shared" si="6"/>
@@ -8003,17 +8031,17 @@
         <v>115</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G124" s="3">
         <v>15</v>
@@ -8031,7 +8059,7 @@
         <v>0</v>
       </c>
       <c r="N124" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O124" s="13">
         <f t="shared" si="6"/>
@@ -8052,19 +8080,19 @@
         <v>116</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G125" s="3">
         <v>61</v>
@@ -8082,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="N125" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O125" s="13">
         <f t="shared" si="6"/>
@@ -8103,19 +8131,19 @@
         <v>117</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G126" s="3">
         <v>220</v>
@@ -8133,7 +8161,7 @@
         <v>0</v>
       </c>
       <c r="N126" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O126" s="13">
         <f t="shared" si="6"/>
@@ -8154,17 +8182,17 @@
         <v>118</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G127" s="3">
         <v>1</v>
@@ -8182,7 +8210,7 @@
         <v>0</v>
       </c>
       <c r="N127" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O127" s="13">
         <f t="shared" si="6"/>
@@ -8203,19 +8231,19 @@
         <v>119</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G128" s="3">
         <v>105</v>
@@ -8233,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="N128" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O128" s="13">
         <f t="shared" si="6"/>
@@ -8254,19 +8282,19 @@
         <v>120</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C129" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D129" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D129" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E129" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G129" s="3">
         <v>211</v>
@@ -8284,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="N129" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O129" s="13">
         <f t="shared" si="6"/>
@@ -8305,19 +8333,19 @@
         <v>121</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G130" s="3">
         <v>326</v>
@@ -8335,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="N130" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O130" s="13">
         <f t="shared" si="6"/>
@@ -8356,19 +8384,19 @@
         <v>122</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G131" s="3">
         <v>146</v>
@@ -8386,7 +8414,7 @@
         <v>0</v>
       </c>
       <c r="N131" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O131" s="13">
         <f t="shared" si="6"/>
@@ -8407,19 +8435,19 @@
         <v>123</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G132" s="3">
         <v>348</v>
@@ -8437,7 +8465,7 @@
         <v>0</v>
       </c>
       <c r="N132" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O132" s="13">
         <f t="shared" si="6"/>
@@ -8458,19 +8486,19 @@
         <v>124</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G133" s="3">
         <v>190</v>
@@ -8488,7 +8516,7 @@
         <v>0</v>
       </c>
       <c r="N133" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O133" s="13">
         <f t="shared" si="6"/>
@@ -8509,19 +8537,19 @@
         <v>125</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C134" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D134" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D134" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E134" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G134" s="3">
         <v>4</v>
@@ -8558,17 +8586,17 @@
         <v>126</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G135" s="3">
         <v>1</v>
@@ -8586,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="N135" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O135" s="13">
         <f t="shared" si="6"/>
@@ -8607,19 +8635,19 @@
         <v>127</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G136" s="3">
         <v>107</v>
@@ -8637,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="N136" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O136" s="13">
         <f t="shared" si="6"/>
@@ -8658,17 +8686,17 @@
         <v>128</v>
       </c>
       <c r="B137" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C137" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>231</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G137" s="3">
         <v>2</v>
@@ -8686,7 +8714,7 @@
         <v>0</v>
       </c>
       <c r="N137" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O137" s="13">
         <f t="shared" si="6"/>
@@ -8707,19 +8735,19 @@
         <v>129</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E138" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F138" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F138" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G138" s="3">
         <v>470</v>
@@ -8737,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="N138" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O138" s="13">
         <f t="shared" ref="O138:O201" si="10">H138-L138</f>
@@ -8758,19 +8786,19 @@
         <v>130</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C139" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D139" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D139" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E139" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G139" s="3">
         <v>108</v>
@@ -8788,7 +8816,7 @@
         <v>0</v>
       </c>
       <c r="N139" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O139" s="13">
         <f t="shared" si="10"/>
@@ -8809,17 +8837,17 @@
         <v>131</v>
       </c>
       <c r="B140" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G140" s="13">
         <v>1</v>
@@ -8837,7 +8865,7 @@
         <v>0</v>
       </c>
       <c r="N140" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O140" s="13">
         <f t="shared" si="10"/>
@@ -8858,17 +8886,17 @@
         <v>132</v>
       </c>
       <c r="B141" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G141" s="13">
         <v>1</v>
@@ -8886,7 +8914,7 @@
         <v>0</v>
       </c>
       <c r="N141" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O141" s="13">
         <f t="shared" si="10"/>
@@ -8907,19 +8935,19 @@
         <v>133</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C142" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D142" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D142" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E142" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F142" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F142" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G142" s="7">
         <v>169</v>
@@ -8937,7 +8965,7 @@
         <v>0</v>
       </c>
       <c r="N142" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O142" s="13">
         <f t="shared" si="10"/>
@@ -8958,19 +8986,19 @@
         <v>134</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G143" s="7">
         <v>9</v>
@@ -8988,7 +9016,7 @@
         <v>0</v>
       </c>
       <c r="N143" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O143" s="13">
         <f t="shared" si="10"/>
@@ -9009,19 +9037,19 @@
         <v>135</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G144" s="7">
         <v>6</v>
@@ -9058,19 +9086,19 @@
         <v>136</v>
       </c>
       <c r="B145" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D145" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C145" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>241</v>
-      </c>
       <c r="E145" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G145" s="3">
         <v>146</v>
@@ -9088,7 +9116,7 @@
         <v>0</v>
       </c>
       <c r="N145" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O145" s="13">
         <f t="shared" si="10"/>
@@ -9109,17 +9137,17 @@
         <v>137</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D146" s="5"/>
       <c r="E146" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G146" s="3">
         <v>1</v>
@@ -9137,7 +9165,7 @@
         <v>0</v>
       </c>
       <c r="N146" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O146" s="13">
         <f t="shared" si="10"/>
@@ -9158,17 +9186,17 @@
         <v>138</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G147" s="3">
         <v>1</v>
@@ -9186,7 +9214,7 @@
         <v>0</v>
       </c>
       <c r="N147" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O147" s="13">
         <f t="shared" si="10"/>
@@ -9207,19 +9235,19 @@
         <v>139</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G148" s="3">
         <v>64</v>
@@ -9237,7 +9265,7 @@
         <v>0</v>
       </c>
       <c r="N148" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O148" s="13">
         <f t="shared" si="10"/>
@@ -9258,17 +9286,17 @@
         <v>140</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G149" s="3">
         <v>2</v>
@@ -9286,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="N149" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O149" s="13">
         <f t="shared" si="10"/>
@@ -9307,19 +9335,19 @@
         <v>141</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G150" s="3">
         <v>0</v>
@@ -9356,19 +9384,19 @@
         <v>142</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D151" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F151" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="E151" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F151" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="G151" s="3">
         <v>136</v>
@@ -9386,7 +9414,7 @@
         <v>0</v>
       </c>
       <c r="N151" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O151" s="13">
         <f t="shared" si="10"/>
@@ -9407,17 +9435,17 @@
         <v>143</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G152" s="3">
         <v>1</v>
@@ -9435,7 +9463,7 @@
         <v>0</v>
       </c>
       <c r="N152" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O152" s="13">
         <f t="shared" si="10"/>
@@ -9456,17 +9484,17 @@
         <v>144</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G153" s="3">
         <v>1</v>
@@ -9484,7 +9512,7 @@
         <v>0</v>
       </c>
       <c r="N153" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O153" s="13">
         <f t="shared" si="10"/>
@@ -9505,19 +9533,19 @@
         <v>145</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C154" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D154" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D154" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E154" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G154" s="3">
         <v>163</v>
@@ -9535,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="N154" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O154" s="13">
         <f t="shared" si="10"/>
@@ -9559,16 +9587,16 @@
         <v>8</v>
       </c>
       <c r="C155" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D155" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D155" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E155" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F155" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F155" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G155" s="3">
         <v>151</v>
@@ -9586,7 +9614,7 @@
         <v>0</v>
       </c>
       <c r="N155" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O155" s="13">
         <f t="shared" si="10"/>
@@ -9607,17 +9635,17 @@
         <v>147</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G156" s="3">
         <v>1</v>
@@ -9635,7 +9663,7 @@
         <v>0</v>
       </c>
       <c r="N156" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O156" s="13">
         <f t="shared" si="10"/>
@@ -9656,17 +9684,17 @@
         <v>148</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G157" s="3">
         <v>1</v>
@@ -9684,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="N157" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O157" s="13">
         <f t="shared" si="10"/>
@@ -9705,17 +9733,17 @@
         <v>149</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G158" s="3">
         <v>2</v>
@@ -9733,7 +9761,7 @@
         <v>0</v>
       </c>
       <c r="N158" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O158" s="13">
         <f t="shared" si="10"/>
@@ -9754,19 +9782,19 @@
         <v>150</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G159" s="3">
         <v>195</v>
@@ -9784,7 +9812,7 @@
         <v>0</v>
       </c>
       <c r="N159" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O159" s="13">
         <f t="shared" si="10"/>
@@ -9805,19 +9833,19 @@
         <v>151</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G160" s="3">
         <v>152</v>
@@ -9835,7 +9863,7 @@
         <v>0</v>
       </c>
       <c r="N160" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O160" s="13">
         <f t="shared" si="10"/>
@@ -9856,19 +9884,19 @@
         <v>152</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G161" s="3">
         <v>137</v>
@@ -9886,7 +9914,7 @@
         <v>0</v>
       </c>
       <c r="N161" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O161" s="13">
         <f t="shared" si="10"/>
@@ -9907,19 +9935,19 @@
         <v>153</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E162" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F162" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F162" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G162" s="3">
         <v>225</v>
@@ -9937,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N162" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O162" s="13">
         <f t="shared" si="10"/>
@@ -9958,19 +9986,19 @@
         <v>154</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C163" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D163" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D163" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E163" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G163" s="3">
         <v>68</v>
@@ -9988,7 +10016,7 @@
         <v>0</v>
       </c>
       <c r="N163" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O163" s="13">
         <f t="shared" si="10"/>
@@ -10009,17 +10037,17 @@
         <v>155</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G164" s="3">
         <v>1</v>
@@ -10037,7 +10065,7 @@
         <v>0</v>
       </c>
       <c r="N164" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O164" s="13">
         <f t="shared" si="10"/>
@@ -10058,19 +10086,19 @@
         <v>156</v>
       </c>
       <c r="B165" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D165" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C165" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D165" s="5" t="s">
-        <v>263</v>
-      </c>
       <c r="E165" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F165" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F165" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G165" s="3">
         <v>246</v>
@@ -10088,7 +10116,7 @@
         <v>0</v>
       </c>
       <c r="N165" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O165" s="13">
         <f t="shared" si="10"/>
@@ -10109,19 +10137,19 @@
         <v>157</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D166" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F166" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="E166" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F166" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="G166" s="3">
         <v>259</v>
@@ -10139,7 +10167,7 @@
         <v>0</v>
       </c>
       <c r="N166" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O166" s="13">
         <f t="shared" si="10"/>
@@ -10160,19 +10188,19 @@
         <v>158</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C167" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D167" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D167" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E167" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F167" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F167" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G167" s="3">
         <v>61</v>
@@ -10190,7 +10218,7 @@
         <v>0</v>
       </c>
       <c r="N167" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O167" s="13">
         <f t="shared" si="10"/>
@@ -10211,17 +10239,17 @@
         <v>159</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G168" s="3">
         <v>4</v>
@@ -10239,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="N168" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O168" s="13">
         <f t="shared" si="10"/>
@@ -10260,19 +10288,19 @@
         <v>160</v>
       </c>
       <c r="B169" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D169" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C169" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D169" s="5" t="s">
-        <v>268</v>
-      </c>
       <c r="E169" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F169" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F169" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G169" s="3">
         <v>116</v>
@@ -10290,7 +10318,7 @@
         <v>0</v>
       </c>
       <c r="N169" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O169" s="13">
         <f t="shared" si="10"/>
@@ -10311,19 +10339,19 @@
         <v>161</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G170" s="3">
         <v>185</v>
@@ -10341,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="N170" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O170" s="13">
         <f t="shared" si="10"/>
@@ -10362,17 +10390,17 @@
         <v>162</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G171" s="3">
         <v>1</v>
@@ -10390,7 +10418,7 @@
         <v>0</v>
       </c>
       <c r="N171" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O171" s="13">
         <f t="shared" si="10"/>
@@ -10411,17 +10439,17 @@
         <v>163</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G172" s="3">
         <v>2</v>
@@ -10439,7 +10467,7 @@
         <v>0</v>
       </c>
       <c r="N172" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O172" s="13">
         <f t="shared" si="10"/>
@@ -10460,17 +10488,17 @@
         <v>164</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D173" s="5"/>
       <c r="E173" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G173" s="3">
         <v>1</v>
@@ -10488,7 +10516,7 @@
         <v>0</v>
       </c>
       <c r="N173" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O173" s="13">
         <f t="shared" si="10"/>
@@ -10509,17 +10537,17 @@
         <v>165</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G174" s="3">
         <v>1</v>
@@ -10537,7 +10565,7 @@
         <v>0</v>
       </c>
       <c r="N174" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O174" s="13">
         <f t="shared" si="10"/>
@@ -10558,17 +10586,17 @@
         <v>166</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G175" s="3">
         <v>1</v>
@@ -10586,7 +10614,7 @@
         <v>0</v>
       </c>
       <c r="N175" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O175" s="13">
         <f t="shared" si="10"/>
@@ -10607,17 +10635,17 @@
         <v>167</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G176" s="3">
         <v>1</v>
@@ -10634,7 +10662,7 @@
         <v>0</v>
       </c>
       <c r="N176" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O176" s="13">
         <f t="shared" si="10"/>
@@ -10655,17 +10683,17 @@
         <v>168</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D177" s="5"/>
       <c r="E177" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G177" s="3">
         <v>1</v>
@@ -10683,7 +10711,7 @@
         <v>0</v>
       </c>
       <c r="N177" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O177" s="13">
         <f t="shared" si="10"/>
@@ -10704,17 +10732,17 @@
         <v>169</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D178" s="5"/>
       <c r="E178" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G178" s="3">
         <v>1</v>
@@ -10732,7 +10760,7 @@
         <v>0</v>
       </c>
       <c r="N178" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O178" s="13">
         <f t="shared" si="10"/>
@@ -10753,17 +10781,17 @@
         <v>170</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G179" s="3">
         <v>3</v>
@@ -10781,7 +10809,7 @@
         <v>0</v>
       </c>
       <c r="N179" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O179" s="13">
         <f t="shared" si="10"/>
@@ -10802,17 +10830,17 @@
         <v>171</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D180" s="5"/>
       <c r="E180" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G180" s="3">
         <v>1</v>
@@ -10830,7 +10858,7 @@
         <v>0</v>
       </c>
       <c r="N180" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O180" s="13">
         <f t="shared" si="10"/>
@@ -10851,17 +10879,17 @@
         <v>172</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D181" s="5"/>
       <c r="E181" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G181" s="3">
         <v>1</v>
@@ -10879,7 +10907,7 @@
         <v>0</v>
       </c>
       <c r="N181" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O181" s="13">
         <f t="shared" si="10"/>
@@ -10900,19 +10928,19 @@
         <v>173</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G182" s="3">
         <v>98</v>
@@ -10930,7 +10958,7 @@
         <v>0</v>
       </c>
       <c r="N182" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O182" s="13">
         <f t="shared" si="10"/>
@@ -10951,17 +10979,17 @@
         <v>174</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D183" s="5"/>
       <c r="E183" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G183" s="3">
         <v>1</v>
@@ -10979,7 +11007,7 @@
         <v>0</v>
       </c>
       <c r="N183" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O183" s="13">
         <f t="shared" si="10"/>
@@ -11000,19 +11028,19 @@
         <v>175</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G184" s="3">
         <v>139</v>
@@ -11030,7 +11058,7 @@
         <v>0</v>
       </c>
       <c r="N184" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O184" s="13">
         <f t="shared" si="10"/>
@@ -11051,17 +11079,17 @@
         <v>176</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D185" s="5"/>
       <c r="E185" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G185" s="3">
         <v>1</v>
@@ -11079,7 +11107,7 @@
         <v>0</v>
       </c>
       <c r="N185" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O185" s="13">
         <f t="shared" si="10"/>
@@ -11100,17 +11128,17 @@
         <v>177</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D186" s="5"/>
       <c r="E186" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G186" s="3">
         <v>1</v>
@@ -11128,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="N186" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O186" s="13">
         <f t="shared" si="10"/>
@@ -11152,16 +11180,16 @@
         <v>7</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G187" s="3">
         <v>244</v>
@@ -11198,17 +11226,17 @@
         <v>179</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D188" s="5"/>
       <c r="E188" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G188" s="3">
         <v>1</v>
@@ -11226,7 +11254,7 @@
         <v>0</v>
       </c>
       <c r="N188" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O188" s="13">
         <f t="shared" si="10"/>
@@ -11247,17 +11275,17 @@
         <v>180</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D189" s="5"/>
       <c r="E189" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G189" s="3">
         <v>1</v>
@@ -11275,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="N189" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O189" s="13">
         <f t="shared" si="10"/>
@@ -11296,17 +11324,17 @@
         <v>181</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D190" s="5"/>
       <c r="E190" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G190" s="3">
         <v>1</v>
@@ -11324,7 +11352,7 @@
         <v>0</v>
       </c>
       <c r="N190" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O190" s="13">
         <f t="shared" si="10"/>
@@ -11348,16 +11376,16 @@
         <v>9</v>
       </c>
       <c r="C191" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D191" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D191" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E191" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F191" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F191" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G191" s="3">
         <v>164</v>
@@ -11375,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="N191" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O191" s="13">
         <f t="shared" si="10"/>
@@ -11396,19 +11424,19 @@
         <v>183</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G192" s="3">
         <v>1</v>
@@ -11426,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="N192" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O192" s="13">
         <f t="shared" si="10"/>
@@ -11450,16 +11478,16 @@
         <v>10</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E193" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F193" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F193" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G193" s="3">
         <v>76</v>
@@ -11477,7 +11505,7 @@
         <v>0</v>
       </c>
       <c r="N193" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O193" s="13">
         <f t="shared" si="10"/>
@@ -11498,19 +11526,19 @@
         <v>185</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E194" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F194" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F194" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G194" s="3">
         <v>114</v>
@@ -11528,7 +11556,7 @@
         <v>0</v>
       </c>
       <c r="N194" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O194" s="13">
         <f t="shared" si="10"/>
@@ -11549,19 +11577,19 @@
         <v>186</v>
       </c>
       <c r="B195" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F195" s="5" t="s">
         <v>293</v>
-      </c>
-      <c r="C195" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D195" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E195" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F195" s="5" t="s">
-        <v>294</v>
       </c>
       <c r="G195" s="3">
         <v>91</v>
@@ -11579,7 +11607,7 @@
         <v>0</v>
       </c>
       <c r="N195" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O195" s="13">
         <f t="shared" si="10"/>
@@ -11600,17 +11628,17 @@
         <v>187</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D196" s="5"/>
       <c r="E196" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G196" s="3">
         <v>1</v>
@@ -11628,7 +11656,7 @@
         <v>0</v>
       </c>
       <c r="N196" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O196" s="13">
         <f t="shared" si="10"/>
@@ -11649,19 +11677,19 @@
         <v>188</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G197" s="3">
         <v>107</v>
@@ -11679,7 +11707,7 @@
         <v>0</v>
       </c>
       <c r="N197" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O197" s="13">
         <f t="shared" si="10"/>
@@ -11700,19 +11728,19 @@
         <v>189</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C198" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D198" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D198" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E198" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G198" s="3">
         <v>103</v>
@@ -11730,7 +11758,7 @@
         <v>0</v>
       </c>
       <c r="N198" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O198" s="13">
         <f t="shared" si="10"/>
@@ -11751,17 +11779,17 @@
         <v>190</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D199" s="5"/>
       <c r="E199" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G199" s="3">
         <v>1</v>
@@ -11779,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="N199" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O199" s="13">
         <f t="shared" si="10"/>
@@ -11800,17 +11828,17 @@
         <v>191</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D200" s="5"/>
       <c r="E200" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G200" s="3">
         <v>1</v>
@@ -11828,7 +11856,7 @@
         <v>0</v>
       </c>
       <c r="N200" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O200" s="13">
         <f t="shared" si="10"/>
@@ -11852,16 +11880,16 @@
         <v>12</v>
       </c>
       <c r="C201" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D201" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D201" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E201" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F201" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F201" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G201" s="3">
         <v>164</v>
@@ -11879,7 +11907,7 @@
         <v>0</v>
       </c>
       <c r="N201" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O201" s="13">
         <f t="shared" si="10"/>
@@ -11900,17 +11928,17 @@
         <v>193</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D202" s="5"/>
       <c r="E202" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G202" s="3">
         <v>1</v>
@@ -11928,7 +11956,7 @@
         <v>0</v>
       </c>
       <c r="N202" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O202" s="13">
         <f t="shared" ref="O202:O265" si="14">H202-L202</f>
@@ -11949,17 +11977,17 @@
         <v>194</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D203" s="5"/>
       <c r="E203" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G203" s="3">
         <v>1</v>
@@ -11977,7 +12005,7 @@
         <v>0</v>
       </c>
       <c r="N203" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O203" s="13">
         <f t="shared" si="14"/>
@@ -11998,17 +12026,17 @@
         <v>195</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D204" s="5"/>
       <c r="E204" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G204" s="3">
         <v>1</v>
@@ -12026,7 +12054,7 @@
         <v>0</v>
       </c>
       <c r="N204" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O204" s="13">
         <f t="shared" si="14"/>
@@ -12047,19 +12075,19 @@
         <v>196</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C205" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D205" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D205" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E205" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G205" s="3">
         <v>37</v>
@@ -12077,7 +12105,7 @@
         <v>0</v>
       </c>
       <c r="N205" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O205" s="13">
         <f t="shared" si="14"/>
@@ -12098,17 +12126,17 @@
         <v>197</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D206" s="5"/>
       <c r="E206" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G206" s="3">
         <v>1</v>
@@ -12126,7 +12154,7 @@
         <v>0</v>
       </c>
       <c r="N206" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O206" s="13">
         <f t="shared" si="14"/>
@@ -12147,17 +12175,17 @@
         <v>198</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D207" s="5"/>
       <c r="E207" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G207" s="3">
         <v>1</v>
@@ -12175,7 +12203,7 @@
         <v>0</v>
       </c>
       <c r="N207" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O207" s="13">
         <f t="shared" si="14"/>
@@ -12196,17 +12224,17 @@
         <v>199</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D208" s="5"/>
       <c r="E208" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G208" s="3">
         <v>1</v>
@@ -12224,7 +12252,7 @@
         <v>0</v>
       </c>
       <c r="N208" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O208" s="13">
         <f t="shared" si="14"/>
@@ -12245,17 +12273,17 @@
         <v>200</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D209" s="5"/>
       <c r="E209" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G209" s="3">
         <v>1</v>
@@ -12273,7 +12301,7 @@
         <v>0</v>
       </c>
       <c r="N209" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O209" s="13">
         <f t="shared" si="14"/>
@@ -12294,17 +12322,17 @@
         <v>201</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D210" s="5"/>
       <c r="E210" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G210" s="3">
         <v>2</v>
@@ -12322,7 +12350,7 @@
         <v>0</v>
       </c>
       <c r="N210" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O210" s="13">
         <f t="shared" si="14"/>
@@ -12343,19 +12371,19 @@
         <v>202</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C211" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D211" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D211" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E211" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G211" s="3">
         <v>86</v>
@@ -12373,7 +12401,7 @@
         <v>0</v>
       </c>
       <c r="N211" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O211" s="13">
         <f t="shared" si="14"/>
@@ -12394,19 +12422,19 @@
         <v>203</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G212" s="3">
         <v>119</v>
@@ -12424,7 +12452,7 @@
         <v>0</v>
       </c>
       <c r="N212" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O212" s="13">
         <f t="shared" si="14"/>
@@ -12445,17 +12473,17 @@
         <v>204</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D213" s="5"/>
       <c r="E213" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G213" s="3">
         <v>1</v>
@@ -12473,7 +12501,7 @@
         <v>0</v>
       </c>
       <c r="N213" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O213" s="13">
         <f t="shared" si="14"/>
@@ -12494,17 +12522,17 @@
         <v>205</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D214" s="5"/>
       <c r="E214" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G214" s="3">
         <v>1</v>
@@ -12522,7 +12550,7 @@
         <v>0</v>
       </c>
       <c r="N214" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O214" s="13">
         <f t="shared" si="14"/>
@@ -12543,19 +12571,19 @@
         <v>206</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G215" s="3">
         <v>48</v>
@@ -12573,7 +12601,7 @@
         <v>0</v>
       </c>
       <c r="N215" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O215" s="13">
         <f t="shared" si="14"/>
@@ -12594,17 +12622,17 @@
         <v>207</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D216" s="5"/>
       <c r="E216" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G216" s="3">
         <v>1</v>
@@ -12622,7 +12650,7 @@
         <v>0</v>
       </c>
       <c r="N216" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O216" s="13">
         <f t="shared" si="14"/>
@@ -12643,17 +12671,17 @@
         <v>208</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D217" s="5"/>
       <c r="E217" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G217" s="3">
         <v>1</v>
@@ -12671,7 +12699,7 @@
         <v>0</v>
       </c>
       <c r="N217" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O217" s="13">
         <f t="shared" si="14"/>
@@ -12692,17 +12720,17 @@
         <v>209</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D218" s="5"/>
       <c r="E218" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G218" s="3">
         <v>1</v>
@@ -12720,7 +12748,7 @@
         <v>0</v>
       </c>
       <c r="N218" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O218" s="13">
         <f t="shared" si="14"/>
@@ -12741,17 +12769,17 @@
         <v>210</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D219" s="5"/>
       <c r="E219" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G219" s="3">
         <v>1</v>
@@ -12769,7 +12797,7 @@
         <v>0</v>
       </c>
       <c r="N219" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O219" s="13">
         <f t="shared" si="14"/>
@@ -12790,19 +12818,19 @@
         <v>211</v>
       </c>
       <c r="B220" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D220" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="C220" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D220" s="5" t="s">
-        <v>321</v>
-      </c>
       <c r="E220" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G220" s="3">
         <v>64</v>
@@ -12820,7 +12848,7 @@
         <v>0</v>
       </c>
       <c r="N220" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O220" s="13">
         <f t="shared" si="14"/>
@@ -12841,19 +12869,19 @@
         <v>212</v>
       </c>
       <c r="B221" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D221" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="C221" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D221" s="5" t="s">
-        <v>324</v>
-      </c>
       <c r="E221" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G221" s="3">
         <v>94</v>
@@ -12871,7 +12899,7 @@
         <v>0</v>
       </c>
       <c r="N221" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O221" s="13">
         <f t="shared" si="14"/>
@@ -12892,19 +12920,19 @@
         <v>213</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G222" s="3">
         <v>3</v>
@@ -12941,17 +12969,17 @@
         <v>214</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D223" s="5"/>
       <c r="E223" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G223" s="3">
         <v>1</v>
@@ -12969,7 +12997,7 @@
         <v>0</v>
       </c>
       <c r="N223" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O223" s="13">
         <f t="shared" si="14"/>
@@ -12990,19 +13018,19 @@
         <v>215</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G224" s="3">
         <v>114</v>
@@ -13020,7 +13048,7 @@
         <v>0</v>
       </c>
       <c r="N224" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O224" s="13">
         <f t="shared" si="14"/>
@@ -13041,19 +13069,19 @@
         <v>216</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G225" s="3">
         <v>41</v>
@@ -13071,7 +13099,7 @@
         <v>0</v>
       </c>
       <c r="N225" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O225" s="13">
         <f t="shared" si="14"/>
@@ -13092,19 +13120,19 @@
         <v>217</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G226" s="3">
         <v>79</v>
@@ -13122,7 +13150,7 @@
         <v>0</v>
       </c>
       <c r="N226" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O226" s="13">
         <f t="shared" si="14"/>
@@ -13143,19 +13171,19 @@
         <v>218</v>
       </c>
       <c r="B227" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D227" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E227" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F227" s="5" t="s">
         <v>332</v>
-      </c>
-      <c r="C227" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D227" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E227" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F227" s="5" t="s">
-        <v>333</v>
       </c>
       <c r="G227" s="3">
         <v>31</v>
@@ -13173,7 +13201,7 @@
         <v>0</v>
       </c>
       <c r="N227" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O227" s="13">
         <f t="shared" si="14"/>
@@ -13194,19 +13222,19 @@
         <v>219</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E228" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F228" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F228" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G228" s="3">
         <v>163</v>
@@ -13224,7 +13252,7 @@
         <v>0</v>
       </c>
       <c r="N228" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O228" s="13">
         <f t="shared" si="14"/>
@@ -13245,17 +13273,17 @@
         <v>220</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D229" s="5"/>
       <c r="E229" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G229" s="3">
         <v>1</v>
@@ -13273,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="N229" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O229" s="13">
         <f t="shared" si="14"/>
@@ -13294,17 +13322,17 @@
         <v>221</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D230" s="5"/>
       <c r="E230" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G230" s="3">
         <v>1</v>
@@ -13322,7 +13350,7 @@
         <v>0</v>
       </c>
       <c r="N230" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O230" s="13">
         <f t="shared" si="14"/>
@@ -13343,19 +13371,19 @@
         <v>222</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F231" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G231" s="3">
         <v>64</v>
@@ -13373,7 +13401,7 @@
         <v>0</v>
       </c>
       <c r="N231" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O231" s="13">
         <f t="shared" si="14"/>
@@ -13394,17 +13422,17 @@
         <v>223</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D232" s="5"/>
       <c r="E232" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G232" s="3">
         <v>1</v>
@@ -13422,7 +13450,7 @@
         <v>0</v>
       </c>
       <c r="N232" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O232" s="13">
         <f t="shared" si="14"/>
@@ -13443,19 +13471,19 @@
         <v>224</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G233" s="3">
         <v>59</v>
@@ -13473,7 +13501,7 @@
         <v>0</v>
       </c>
       <c r="N233" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O233" s="13">
         <f t="shared" si="14"/>
@@ -13494,19 +13522,19 @@
         <v>225</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F234" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G234" s="3">
         <v>51</v>
@@ -13524,7 +13552,7 @@
         <v>0</v>
       </c>
       <c r="N234" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O234" s="13">
         <f t="shared" si="14"/>
@@ -13545,19 +13573,19 @@
         <v>226</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F235" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G235" s="3">
         <v>2</v>
@@ -13575,7 +13603,7 @@
         <v>0</v>
       </c>
       <c r="N235" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O235" s="13">
         <f t="shared" si="14"/>
@@ -13596,19 +13624,19 @@
         <v>227</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G236" s="3">
         <v>3</v>
@@ -13626,7 +13654,7 @@
         <v>0</v>
       </c>
       <c r="N236" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O236" s="13">
         <f t="shared" si="14"/>
@@ -13647,19 +13675,19 @@
         <v>228</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F237" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G237" s="3">
         <v>135</v>
@@ -13677,7 +13705,7 @@
         <v>0</v>
       </c>
       <c r="N237" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O237" s="13">
         <f t="shared" si="14"/>
@@ -13698,19 +13726,19 @@
         <v>229</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F238" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G238" s="3">
         <v>23</v>
@@ -13728,7 +13756,7 @@
         <v>0</v>
       </c>
       <c r="N238" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O238" s="13">
         <f t="shared" si="14"/>
@@ -13749,19 +13777,19 @@
         <v>230</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F239" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G239" s="3">
         <v>8</v>
@@ -13779,7 +13807,7 @@
         <v>0</v>
       </c>
       <c r="N239" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O239" s="13">
         <f t="shared" si="14"/>
@@ -13800,19 +13828,19 @@
         <v>231</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G240" s="3">
         <v>0</v>
@@ -13830,7 +13858,7 @@
         <v>0</v>
       </c>
       <c r="N240" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O240" s="13">
         <f t="shared" si="14"/>
@@ -13851,17 +13879,17 @@
         <v>232</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D241" s="5"/>
       <c r="E241" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F241" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G241" s="3">
         <v>1</v>
@@ -13879,7 +13907,7 @@
         <v>0</v>
       </c>
       <c r="N241" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O241" s="13">
         <f t="shared" si="14"/>
@@ -13900,17 +13928,17 @@
         <v>233</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D242" s="5"/>
       <c r="E242" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F242" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G242" s="3">
         <v>1</v>
@@ -13928,7 +13956,7 @@
         <v>0</v>
       </c>
       <c r="N242" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O242" s="13">
         <f t="shared" si="14"/>
@@ -13949,19 +13977,19 @@
         <v>234</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F243" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G243" s="3">
         <v>4</v>
@@ -13979,7 +14007,7 @@
         <v>0</v>
       </c>
       <c r="N243" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O243" s="13">
         <f t="shared" si="14"/>
@@ -14000,19 +14028,19 @@
         <v>235</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G244" s="3">
         <v>4</v>
@@ -14030,7 +14058,7 @@
         <v>0</v>
       </c>
       <c r="N244" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O244" s="13">
         <f t="shared" si="14"/>
@@ -14051,19 +14079,19 @@
         <v>236</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F245" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G245" s="3">
         <v>1</v>
@@ -14081,7 +14109,7 @@
         <v>0</v>
       </c>
       <c r="N245" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O245" s="13">
         <f t="shared" si="14"/>
@@ -14100,19 +14128,19 @@
         <v>237</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E246" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F246" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F246" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G246" s="3">
         <v>2</v>
@@ -14130,7 +14158,7 @@
         <v>0</v>
       </c>
       <c r="N246" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O246" s="13">
         <f t="shared" si="14"/>
@@ -14151,19 +14179,19 @@
         <v>238</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E247" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F247" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F247" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G247" s="3">
         <v>8</v>
@@ -14181,7 +14209,7 @@
         <v>0</v>
       </c>
       <c r="N247" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O247" s="13">
         <f t="shared" si="14"/>
@@ -14202,19 +14230,19 @@
         <v>239</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F248" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G248" s="3">
         <v>5</v>
@@ -14232,7 +14260,7 @@
         <v>0</v>
       </c>
       <c r="N248" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O248" s="13">
         <f t="shared" si="14"/>
@@ -14253,19 +14281,19 @@
         <v>240</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E249" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F249" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F249" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G249" s="3">
         <v>108</v>
@@ -14283,7 +14311,7 @@
         <v>0</v>
       </c>
       <c r="N249" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O249" s="13">
         <f t="shared" si="14"/>
@@ -14304,17 +14332,17 @@
         <v>241</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D250" s="5"/>
       <c r="E250" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F250" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G250" s="3">
         <v>1</v>
@@ -14332,7 +14360,7 @@
         <v>0</v>
       </c>
       <c r="N250" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O250" s="13">
         <f t="shared" si="14"/>
@@ -14353,16 +14381,16 @@
         <v>242</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E251" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F251" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F251" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G251" s="3">
         <v>47</v>
@@ -14380,7 +14408,7 @@
         <v>0</v>
       </c>
       <c r="N251" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O251" s="13">
         <f t="shared" si="14"/>
@@ -14401,19 +14429,19 @@
         <v>243</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F252" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G252" s="3">
         <v>64</v>
@@ -14431,7 +14459,7 @@
         <v>0</v>
       </c>
       <c r="N252" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O252" s="13">
         <f t="shared" si="14"/>
@@ -14452,19 +14480,19 @@
         <v>244</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E253" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F253" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F253" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G253" s="3">
         <v>1</v>
@@ -14479,7 +14507,7 @@
       <c r="L253" s="3"/>
       <c r="M253" s="3"/>
       <c r="N253" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O253" s="13">
         <f t="shared" si="14"/>
@@ -14498,19 +14526,19 @@
         <v>245</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E254" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F254" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F254" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G254" s="3">
         <v>59</v>
@@ -14528,7 +14556,7 @@
         <v>0</v>
       </c>
       <c r="N254" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O254" s="13">
         <f t="shared" si="14"/>
@@ -14549,19 +14577,19 @@
         <v>246</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E255" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F255" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F255" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G255" s="3">
         <v>60</v>
@@ -14579,7 +14607,7 @@
         <v>0</v>
       </c>
       <c r="N255" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O255" s="13">
         <f t="shared" si="14"/>
@@ -14600,19 +14628,19 @@
         <v>247</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F256" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G256" s="3">
         <v>5</v>
@@ -14630,7 +14658,7 @@
         <v>0</v>
       </c>
       <c r="N256" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O256" s="13">
         <f t="shared" si="14"/>
@@ -14651,19 +14679,19 @@
         <v>248</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F257" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G257" s="3">
         <v>35</v>
@@ -14681,7 +14709,7 @@
         <v>0</v>
       </c>
       <c r="N257" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O257" s="13">
         <f t="shared" si="14"/>
@@ -14702,19 +14730,19 @@
         <v>249</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E258" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F258" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F258" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G258" s="3">
         <v>1</v>
@@ -14732,7 +14760,7 @@
         <v>0</v>
       </c>
       <c r="N258" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O258" s="13">
         <f t="shared" si="14"/>
@@ -14753,19 +14781,19 @@
         <v>250</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F259" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G259" s="3">
         <v>2</v>
@@ -14783,7 +14811,7 @@
         <v>0</v>
       </c>
       <c r="N259" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O259" s="13">
         <f t="shared" si="14"/>
@@ -14804,19 +14832,19 @@
         <v>251</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F260" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G260" s="3">
         <v>13</v>
@@ -14834,7 +14862,7 @@
         <v>0</v>
       </c>
       <c r="N260" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O260" s="13">
         <f t="shared" si="14"/>
@@ -14855,19 +14883,19 @@
         <v>252</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E261" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F261" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G261" s="3">
         <v>1</v>
@@ -14884,7 +14912,7 @@
         <v>0</v>
       </c>
       <c r="N261" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O261" s="13">
         <f t="shared" si="14"/>
@@ -14905,19 +14933,19 @@
         <v>253</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F262" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G262" s="3">
         <v>2</v>
@@ -14935,7 +14963,7 @@
         <v>0</v>
       </c>
       <c r="N262" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O262" s="13">
         <f t="shared" si="14"/>
@@ -14956,19 +14984,19 @@
         <v>254</v>
       </c>
       <c r="B263" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D263" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C263" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D263" s="5" t="s">
-        <v>376</v>
-      </c>
       <c r="E263" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F263" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G263" s="6">
         <v>1</v>
@@ -14986,7 +15014,7 @@
         <v>0</v>
       </c>
       <c r="N263" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O263" s="6">
         <f t="shared" si="14"/>
@@ -15007,19 +15035,19 @@
         <v>255</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F264" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G264" s="6">
         <v>4</v>
@@ -15037,7 +15065,7 @@
         <v>0</v>
       </c>
       <c r="N264" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O264" s="6">
         <f t="shared" si="14"/>
@@ -15067,7 +15095,7 @@
       <c r="I265" s="27"/>
       <c r="J265" s="27"/>
       <c r="K265" s="25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L265" s="25"/>
       <c r="M265" s="13">
@@ -15075,7 +15103,7 @@
         <v>0</v>
       </c>
       <c r="N265" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O265" s="13">
         <f t="shared" si="14"/>
@@ -15089,19 +15117,19 @@
       <c r="U265" s="14"/>
     </row>
     <row r="266" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="41" t="s">
-        <v>379</v>
-      </c>
-      <c r="B266" s="41"/>
-      <c r="C266" s="41"/>
-      <c r="D266" s="41"/>
-      <c r="E266" s="41"/>
-      <c r="F266" s="41"/>
-      <c r="G266" s="41"/>
-      <c r="H266" s="41"/>
-      <c r="I266" s="41"/>
-      <c r="J266" s="41"/>
-      <c r="K266" s="41"/>
+      <c r="A266" s="46" t="s">
+        <v>378</v>
+      </c>
+      <c r="B266" s="46"/>
+      <c r="C266" s="46"/>
+      <c r="D266" s="46"/>
+      <c r="E266" s="46"/>
+      <c r="F266" s="46"/>
+      <c r="G266" s="46"/>
+      <c r="H266" s="46"/>
+      <c r="I266" s="46"/>
+      <c r="J266" s="46"/>
+      <c r="K266" s="46"/>
       <c r="L266" s="3"/>
       <c r="M266" s="3">
         <f t="shared" si="17"/>
@@ -15183,10 +15211,10 @@
     </row>
     <row r="268" spans="1:27" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="37" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G268" s="34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H268" s="35">
         <f>H265+I267+J267</f>
@@ -15197,10 +15225,10 @@
     </row>
     <row r="269" spans="1:27" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="37" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G269" s="34" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H269" s="35">
         <f>H268+P267</f>
@@ -15217,19 +15245,19 @@
       <c r="E271" s="36"/>
       <c r="F271" s="36"/>
       <c r="G271" s="36"/>
-      <c r="H271" s="42" t="s">
-        <v>382</v>
-      </c>
-      <c r="I271" s="42"/>
-      <c r="J271" s="42"/>
-      <c r="K271" s="42"/>
-      <c r="L271" s="42"/>
-      <c r="M271" s="42"/>
-      <c r="N271" s="42"/>
-      <c r="O271" s="42"/>
-      <c r="P271" s="42"/>
-      <c r="Q271" s="42"/>
-      <c r="R271" s="42"/>
+      <c r="H271" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="I271" s="47"/>
+      <c r="J271" s="47"/>
+      <c r="K271" s="47"/>
+      <c r="L271" s="47"/>
+      <c r="M271" s="47"/>
+      <c r="N271" s="47"/>
+      <c r="O271" s="47"/>
+      <c r="P271" s="47"/>
+      <c r="Q271" s="47"/>
+      <c r="R271" s="47"/>
       <c r="S271" s="36"/>
       <c r="T271" s="36"/>
       <c r="U271" s="36"/>
@@ -15296,6 +15324,18 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A266:K266"/>
+    <mergeCell ref="H271:R271"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="T1:U3"/>
     <mergeCell ref="A4:U4"/>
     <mergeCell ref="A6:A8"/>
@@ -15306,23 +15346,11 @@
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:O8"/>
-    <mergeCell ref="P6:P7"/>
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="U6:U8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="A266:K266"/>
-    <mergeCell ref="H271:R271"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="Q7:R7"/>
   </mergeCells>
   <conditionalFormatting sqref="B10:B141 B145:B262 B265">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>

--- a/app/routes/generate-reports/.server/workbooks/report.xlsx
+++ b/app/routes/generate-reports/.server/workbooks/report.xlsx
@@ -1594,25 +1594,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1622,6 +1610,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2010,8 +2010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI273"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A103" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="P253" sqref="P253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2039,43 +2039,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T1" s="41" t="s">
+      <c r="T1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="41"/>
+      <c r="U1" s="47"/>
     </row>
     <row r="2" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
     </row>
     <row r="3" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
     </row>
     <row r="4" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
     </row>
     <row r="5" spans="1:22" ht="47.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:22" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2096,12 +2096,12 @@
       <c r="G6" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
       <c r="L6" s="43" t="s">
         <v>4</v>
       </c>
@@ -2110,7 +2110,7 @@
       <c r="O6" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="48" t="s">
+      <c r="P6" s="44" t="s">
         <v>21</v>
       </c>
       <c r="Q6" s="43" t="s">
@@ -2130,7 +2130,7 @@
       <c r="D7" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="50" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="43" t="s">
@@ -2159,7 +2159,7 @@
         <v>30</v>
       </c>
       <c r="O7" s="43"/>
-      <c r="P7" s="49"/>
+      <c r="P7" s="45"/>
       <c r="Q7" s="43" t="s">
         <v>31</v>
       </c>
@@ -2186,7 +2186,7 @@
       <c r="M8" s="43"/>
       <c r="N8" s="43"/>
       <c r="O8" s="43"/>
-      <c r="P8" s="50"/>
+      <c r="P8" s="46"/>
       <c r="Q8" s="5" t="s">
         <v>33</v>
       </c>
@@ -11952,7 +11952,7 @@
       <c r="K202" s="5"/>
       <c r="L202" s="3"/>
       <c r="M202" s="3">
-        <f t="shared" ref="M202:M252" si="13">L202</f>
+        <f t="shared" ref="M202:M253" si="13">L202</f>
         <v>0</v>
       </c>
       <c r="N202" s="3" t="s">
@@ -14505,7 +14505,10 @@
       <c r="J253" s="5"/>
       <c r="K253" s="5"/>
       <c r="L253" s="3"/>
-      <c r="M253" s="3"/>
+      <c r="M253" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="N253" s="3" t="s">
         <v>60</v>
       </c>
@@ -15117,19 +15120,19 @@
       <c r="U265" s="14"/>
     </row>
     <row r="266" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="46" t="s">
+      <c r="A266" s="41" t="s">
         <v>378</v>
       </c>
-      <c r="B266" s="46"/>
-      <c r="C266" s="46"/>
-      <c r="D266" s="46"/>
-      <c r="E266" s="46"/>
-      <c r="F266" s="46"/>
-      <c r="G266" s="46"/>
-      <c r="H266" s="46"/>
-      <c r="I266" s="46"/>
-      <c r="J266" s="46"/>
-      <c r="K266" s="46"/>
+      <c r="B266" s="41"/>
+      <c r="C266" s="41"/>
+      <c r="D266" s="41"/>
+      <c r="E266" s="41"/>
+      <c r="F266" s="41"/>
+      <c r="G266" s="41"/>
+      <c r="H266" s="41"/>
+      <c r="I266" s="41"/>
+      <c r="J266" s="41"/>
+      <c r="K266" s="41"/>
       <c r="L266" s="3"/>
       <c r="M266" s="3">
         <f t="shared" si="17"/>
@@ -15245,19 +15248,19 @@
       <c r="E271" s="36"/>
       <c r="F271" s="36"/>
       <c r="G271" s="36"/>
-      <c r="H271" s="47" t="s">
+      <c r="H271" s="42" t="s">
         <v>381</v>
       </c>
-      <c r="I271" s="47"/>
-      <c r="J271" s="47"/>
-      <c r="K271" s="47"/>
-      <c r="L271" s="47"/>
-      <c r="M271" s="47"/>
-      <c r="N271" s="47"/>
-      <c r="O271" s="47"/>
-      <c r="P271" s="47"/>
-      <c r="Q271" s="47"/>
-      <c r="R271" s="47"/>
+      <c r="I271" s="42"/>
+      <c r="J271" s="42"/>
+      <c r="K271" s="42"/>
+      <c r="L271" s="42"/>
+      <c r="M271" s="42"/>
+      <c r="N271" s="42"/>
+      <c r="O271" s="42"/>
+      <c r="P271" s="42"/>
+      <c r="Q271" s="42"/>
+      <c r="R271" s="42"/>
       <c r="S271" s="36"/>
       <c r="T271" s="36"/>
       <c r="U271" s="36"/>
@@ -15324,18 +15327,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A266:K266"/>
-    <mergeCell ref="H271:R271"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
     <mergeCell ref="T1:U3"/>
     <mergeCell ref="A4:U4"/>
     <mergeCell ref="A6:A8"/>
@@ -15351,6 +15342,18 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="A266:K266"/>
+    <mergeCell ref="H271:R271"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="P6:P8"/>
   </mergeCells>
   <conditionalFormatting sqref="B10:B141 B145:B262 B265">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>

--- a/app/routes/generate-reports/.server/workbooks/report.xlsx
+++ b/app/routes/generate-reports/.server/workbooks/report.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Лист 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Лист 1'!$A$9:$U$270</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Лист 1'!$A$9:$U$271</definedName>
   </definedNames>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="385">
   <si>
     <t>Приложение  к распоряжению №___ от________</t>
   </si>
@@ -1179,6 +1179,9 @@
   </si>
   <si>
     <t>ТП-279</t>
+  </si>
+  <si>
+    <t>ТП-281</t>
   </si>
 </sst>
 </file>
@@ -1340,7 +1343,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1398,15 +1401,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1456,7 +1450,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1527,15 +1521,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1567,14 +1552,11 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1583,10 +1565,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -1972,10 +1963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMI274"/>
+  <dimension ref="A1:AMI275"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A115" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="N122" sqref="N122"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A261" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E266" sqref="E266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2003,43 +1994,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="U1" s="43"/>
+      <c r="T1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="39"/>
     </row>
     <row r="2" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
     </row>
     <row r="3" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
     </row>
     <row r="4" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
     </row>
     <row r="5" spans="1:22" ht="47.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:22" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2060,12 +2051,12 @@
       <c r="G6" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
       <c r="L6" s="41" t="s">
         <v>8</v>
       </c>
@@ -2094,7 +2085,7 @@
       <c r="D7" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="43" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="41" t="s">
@@ -11916,14 +11907,14 @@
       <c r="K202" s="2"/>
       <c r="L202" s="11"/>
       <c r="M202" s="11">
-        <f t="shared" ref="M202:M266" si="13">L202</f>
+        <f t="shared" ref="M202:M267" si="13">L202</f>
         <v>0</v>
       </c>
       <c r="N202" s="11" t="s">
         <v>51</v>
       </c>
       <c r="O202" s="12">
-        <f t="shared" ref="O202:O266" si="14">H202-L202</f>
+        <f t="shared" ref="O202:O267" si="14">H202-L202</f>
         <v>0</v>
       </c>
       <c r="P202" s="13">
@@ -14641,7 +14632,7 @@
       <c r="U256" s="14"/>
       <c r="V256" s="5"/>
     </row>
-    <row r="257" spans="1:27" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:22" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>248</v>
       </c>
@@ -14692,7 +14683,7 @@
       <c r="U257" s="14"/>
       <c r="V257" s="5"/>
     </row>
-    <row r="258" spans="1:27" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:22" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>249</v>
       </c>
@@ -14743,7 +14734,7 @@
       <c r="U258" s="14"/>
       <c r="V258" s="5"/>
     </row>
-    <row r="259" spans="1:27" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:22" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>250</v>
       </c>
@@ -14794,7 +14785,7 @@
       <c r="U259" s="14"/>
       <c r="V259" s="5"/>
     </row>
-    <row r="260" spans="1:27" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:22" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>251</v>
       </c>
@@ -14845,7 +14836,7 @@
       <c r="U260" s="14"/>
       <c r="V260" s="5"/>
     </row>
-    <row r="261" spans="1:27" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:22" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>252</v>
       </c>
@@ -14895,7 +14886,7 @@
       <c r="U261" s="14"/>
       <c r="V261" s="5"/>
     </row>
-    <row r="262" spans="1:27" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:22" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>253</v>
       </c>
@@ -14946,7 +14937,7 @@
       <c r="U262" s="14"/>
       <c r="V262" s="5"/>
     </row>
-    <row r="263" spans="1:27" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:22" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>254</v>
       </c>
@@ -14997,7 +14988,7 @@
       <c r="U263" s="14"/>
       <c r="V263" s="5"/>
     </row>
-    <row r="264" spans="1:27" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:22" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>255</v>
       </c>
@@ -15048,7 +15039,7 @@
       <c r="U264" s="14"/>
       <c r="V264" s="5"/>
     </row>
-    <row r="265" spans="1:27" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:22" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>256</v>
       </c>
@@ -15098,249 +15089,312 @@
       <c r="U265" s="3"/>
       <c r="V265" s="5"/>
     </row>
-    <row r="266" spans="1:27" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="26"/>
-      <c r="B266" s="27"/>
-      <c r="C266" s="28"/>
-      <c r="D266" s="28"/>
-      <c r="E266" s="28"/>
-      <c r="F266" s="28"/>
-      <c r="G266" s="25"/>
-      <c r="H266" s="25">
-        <v>0</v>
-      </c>
-      <c r="I266" s="27"/>
-      <c r="J266" s="27"/>
-      <c r="K266" s="25" t="s">
+    <row r="266" spans="1:22" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="37">
+        <v>257</v>
+      </c>
+      <c r="B266" s="38" t="s">
+        <v>384</v>
+      </c>
+      <c r="C266" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D266" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E266" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F266" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G266" s="38">
+        <v>1</v>
+      </c>
+      <c r="H266" s="38"/>
+      <c r="I266" s="11">
+        <f>H266-J266</f>
+        <v>0</v>
+      </c>
+      <c r="J266" s="38"/>
+      <c r="K266" s="38"/>
+      <c r="L266" s="38"/>
+      <c r="M266" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N266" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="O266" s="38">
+        <v>0</v>
+      </c>
+      <c r="P266" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q266" s="25"/>
+      <c r="R266" s="25"/>
+      <c r="S266" s="25"/>
+      <c r="T266" s="25"/>
+      <c r="U266" s="25"/>
+      <c r="V266" s="5"/>
+    </row>
+    <row r="267" spans="1:22" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="37"/>
+      <c r="B267" s="38"/>
+      <c r="C267" s="37"/>
+      <c r="D267" s="37"/>
+      <c r="E267" s="37"/>
+      <c r="F267" s="37"/>
+      <c r="G267" s="38"/>
+      <c r="H267" s="38">
+        <v>0</v>
+      </c>
+      <c r="I267" s="38"/>
+      <c r="J267" s="38"/>
+      <c r="K267" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="L266" s="25"/>
-      <c r="M266" s="12">
+      <c r="L267" s="25"/>
+      <c r="M267" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N266" s="12" t="s">
+      <c r="N267" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="O266" s="12">
+      <c r="O267" s="12">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P266" s="29"/>
-      <c r="Q266" s="29"/>
-      <c r="R266" s="29"/>
-      <c r="S266" s="29"/>
-      <c r="T266" s="29"/>
-      <c r="U266" s="23"/>
-    </row>
-    <row r="267" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="42" t="s">
+      <c r="P267" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q267" s="26"/>
+      <c r="R267" s="26"/>
+      <c r="S267" s="26"/>
+      <c r="T267" s="26"/>
+      <c r="U267" s="23"/>
+    </row>
+    <row r="268" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="45" t="s">
         <v>376</v>
       </c>
-      <c r="B267" s="42"/>
-      <c r="C267" s="42"/>
-      <c r="D267" s="42"/>
-      <c r="E267" s="42"/>
-      <c r="F267" s="42"/>
-      <c r="G267" s="42"/>
-      <c r="H267" s="42"/>
-      <c r="I267" s="42"/>
-      <c r="J267" s="42"/>
-      <c r="K267" s="42"/>
-      <c r="L267" s="11"/>
-      <c r="M267" s="11">
-        <f t="shared" ref="M267" si="17">L267</f>
-        <v>0</v>
-      </c>
-      <c r="N267" s="11"/>
-      <c r="O267" s="11"/>
-      <c r="P267" s="30"/>
-      <c r="Q267" s="14"/>
-      <c r="R267" s="14"/>
-      <c r="S267" s="14"/>
-      <c r="T267" s="14"/>
-      <c r="U267" s="19"/>
-      <c r="V267" s="5"/>
-    </row>
-    <row r="268" spans="1:27" s="33" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="31"/>
-      <c r="B268" s="32" t="s">
+      <c r="B268" s="45"/>
+      <c r="C268" s="45"/>
+      <c r="D268" s="45"/>
+      <c r="E268" s="45"/>
+      <c r="F268" s="45"/>
+      <c r="G268" s="45"/>
+      <c r="H268" s="45"/>
+      <c r="I268" s="45"/>
+      <c r="J268" s="45"/>
+      <c r="K268" s="45"/>
+      <c r="L268" s="11"/>
+      <c r="M268" s="11">
+        <f t="shared" ref="M268" si="17">L268</f>
+        <v>0</v>
+      </c>
+      <c r="N268" s="11"/>
+      <c r="O268" s="11"/>
+      <c r="P268" s="27"/>
+      <c r="Q268" s="14"/>
+      <c r="R268" s="14"/>
+      <c r="S268" s="14"/>
+      <c r="T268" s="14"/>
+      <c r="U268" s="19"/>
+      <c r="V268" s="5"/>
+    </row>
+    <row r="269" spans="1:22" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="28"/>
+      <c r="B269" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="C268" s="31"/>
-      <c r="D268" s="31"/>
-      <c r="E268" s="31"/>
-      <c r="F268" s="8"/>
-      <c r="G268" s="31">
-        <f>SUM(G10:G264)</f>
-        <v>22263</v>
-      </c>
-      <c r="H268" s="31">
-        <f>SUM(H10:H265)</f>
-        <v>0</v>
-      </c>
-      <c r="I268" s="31">
-        <f>SUM(I10:I265)</f>
-        <v>0</v>
-      </c>
-      <c r="J268" s="31">
-        <f>SUM(J10:J265)</f>
-        <v>0</v>
-      </c>
-      <c r="K268" s="31">
-        <f>SUM(K10:K265)</f>
-        <v>0</v>
-      </c>
-      <c r="L268" s="31">
-        <f>SUM(L10:L267)</f>
-        <v>0</v>
-      </c>
-      <c r="M268" s="31">
-        <f>SUM(M10:M267)</f>
-        <v>0</v>
-      </c>
-      <c r="N268" s="8"/>
-      <c r="O268" s="31">
-        <f>SUM(O10:O267)-L267</f>
-        <v>0</v>
-      </c>
-      <c r="P268" s="31">
-        <f>SUM(P10:P267)</f>
-        <v>0</v>
-      </c>
-      <c r="Q268" s="31">
-        <f>SUM(Q10:Q267)</f>
-        <v>0</v>
-      </c>
-      <c r="R268" s="31">
-        <f>SUM(R10:R267)</f>
-        <v>0</v>
-      </c>
-      <c r="S268" s="31">
-        <f>SUM(S10:S267)</f>
-        <v>0</v>
-      </c>
-      <c r="T268" s="31">
-        <f>SUM(T10:T267)</f>
-        <v>0</v>
-      </c>
-      <c r="U268" s="31"/>
-    </row>
-    <row r="269" spans="1:27" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B269" s="34" t="s">
+      <c r="C269" s="28"/>
+      <c r="D269" s="28"/>
+      <c r="E269" s="28"/>
+      <c r="F269" s="8"/>
+      <c r="G269" s="28">
+        <f>SUM(G10:G266)</f>
+        <v>22278</v>
+      </c>
+      <c r="H269" s="28">
+        <f>SUM(H10:H266)</f>
+        <v>0</v>
+      </c>
+      <c r="I269" s="28">
+        <f>SUM(I10:I266)</f>
+        <v>0</v>
+      </c>
+      <c r="J269" s="28">
+        <f>SUM(J10:J266)</f>
+        <v>0</v>
+      </c>
+      <c r="K269" s="28">
+        <f>SUM(K10:K266)</f>
+        <v>0</v>
+      </c>
+      <c r="L269" s="28">
+        <f>SUM(L10:L268)</f>
+        <v>0</v>
+      </c>
+      <c r="M269" s="28">
+        <f>SUM(M10:M268)</f>
+        <v>0</v>
+      </c>
+      <c r="N269" s="8"/>
+      <c r="O269" s="28">
+        <f>SUM(O10:O268)-L268</f>
+        <v>0</v>
+      </c>
+      <c r="P269" s="28">
+        <f>SUM(P10:P268)</f>
+        <v>0</v>
+      </c>
+      <c r="Q269" s="28">
+        <f>SUM(Q10:Q268)</f>
+        <v>0</v>
+      </c>
+      <c r="R269" s="28">
+        <f>SUM(R10:R268)</f>
+        <v>0</v>
+      </c>
+      <c r="S269" s="28">
+        <f>SUM(S10:S268)</f>
+        <v>0</v>
+      </c>
+      <c r="T269" s="28">
+        <f>SUM(T10:T268)</f>
+        <v>0</v>
+      </c>
+      <c r="U269" s="28"/>
+    </row>
+    <row r="270" spans="1:22" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B270" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="G269" s="35" t="s">
+      <c r="G270" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="H269" s="36">
-        <f>H266+I268+J268</f>
-        <v>0</v>
-      </c>
-      <c r="I269" s="37"/>
-      <c r="M269" s="18"/>
-    </row>
-    <row r="270" spans="1:27" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B270" s="34" t="s">
+      <c r="H270" s="33">
+        <f>H267+I269+J269</f>
+        <v>0</v>
+      </c>
+      <c r="I270" s="34"/>
+      <c r="M270" s="18"/>
+    </row>
+    <row r="271" spans="1:22" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B271" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="G270" s="35" t="s">
+      <c r="G271" s="32" t="s">
         <v>381</v>
       </c>
-      <c r="H270" s="36">
-        <f>H269+P268</f>
-        <v>0</v>
-      </c>
-      <c r="I270" s="37"/>
-      <c r="M270" s="18"/>
-    </row>
-    <row r="272" spans="1:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="38"/>
-      <c r="B272" s="38"/>
-      <c r="C272" s="38"/>
-      <c r="D272" s="38"/>
-      <c r="E272" s="38"/>
-      <c r="F272" s="38"/>
-      <c r="G272" s="38"/>
-      <c r="H272" s="40" t="s">
+      <c r="H271" s="33">
+        <f>H270+P269</f>
+        <v>0</v>
+      </c>
+      <c r="I271" s="34"/>
+      <c r="M271" s="18"/>
+    </row>
+    <row r="273" spans="1:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="35"/>
+      <c r="B273" s="35"/>
+      <c r="C273" s="35"/>
+      <c r="D273" s="35"/>
+      <c r="E273" s="35"/>
+      <c r="F273" s="35"/>
+      <c r="G273" s="35"/>
+      <c r="H273" s="44" t="s">
         <v>382</v>
       </c>
-      <c r="I272" s="40"/>
-      <c r="J272" s="40"/>
-      <c r="K272" s="40"/>
-      <c r="L272" s="40"/>
-      <c r="M272" s="40"/>
-      <c r="N272" s="40"/>
-      <c r="O272" s="40"/>
-      <c r="P272" s="40"/>
-      <c r="Q272" s="40"/>
-      <c r="R272" s="40"/>
-      <c r="S272" s="38"/>
-      <c r="T272" s="38"/>
-      <c r="U272" s="38"/>
-      <c r="V272" s="38"/>
-      <c r="W272" s="38"/>
-      <c r="X272" s="38"/>
-      <c r="Y272" s="38"/>
-      <c r="Z272" s="38"/>
-      <c r="AA272" s="38"/>
-    </row>
-    <row r="273" spans="1:25" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="39"/>
-      <c r="B273" s="39"/>
-      <c r="C273" s="39"/>
-      <c r="D273" s="39"/>
-      <c r="E273" s="39"/>
-      <c r="F273" s="39"/>
-      <c r="G273" s="39"/>
-      <c r="H273" s="39"/>
-      <c r="I273" s="39"/>
-      <c r="J273" s="39"/>
-      <c r="K273" s="39"/>
-      <c r="L273" s="39"/>
-      <c r="M273" s="39"/>
-      <c r="N273" s="39"/>
-      <c r="O273" s="39"/>
-      <c r="P273" s="39"/>
-      <c r="Q273" s="39"/>
-      <c r="R273" s="39"/>
-      <c r="S273" s="39"/>
-      <c r="T273" s="39"/>
-      <c r="U273" s="39"/>
-      <c r="V273" s="39"/>
-      <c r="W273" s="39"/>
-      <c r="X273" s="39"/>
-      <c r="Y273" s="39"/>
-    </row>
-    <row r="274" spans="1:25" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="39"/>
-      <c r="B274" s="39"/>
-      <c r="C274" s="39"/>
-      <c r="D274" s="39"/>
-      <c r="E274" s="39"/>
-      <c r="F274" s="39"/>
-      <c r="G274" s="39"/>
-      <c r="H274" s="39"/>
-      <c r="I274" s="39"/>
-      <c r="J274" s="39"/>
-      <c r="K274" s="39"/>
-      <c r="L274" s="39"/>
-      <c r="M274" s="39"/>
-      <c r="N274" s="39"/>
-      <c r="O274" s="39"/>
-      <c r="P274" s="39"/>
-      <c r="Q274" s="39"/>
-      <c r="R274" s="39"/>
-      <c r="S274" s="39"/>
-      <c r="T274" s="39"/>
-      <c r="U274" s="39"/>
-      <c r="V274" s="39"/>
-      <c r="W274" s="39"/>
-      <c r="X274" s="39"/>
-      <c r="Y274" s="39"/>
+      <c r="I273" s="44"/>
+      <c r="J273" s="44"/>
+      <c r="K273" s="44"/>
+      <c r="L273" s="44"/>
+      <c r="M273" s="44"/>
+      <c r="N273" s="44"/>
+      <c r="O273" s="44"/>
+      <c r="P273" s="44"/>
+      <c r="Q273" s="44"/>
+      <c r="R273" s="44"/>
+      <c r="S273" s="35"/>
+      <c r="T273" s="35"/>
+      <c r="U273" s="35"/>
+      <c r="V273" s="35"/>
+      <c r="W273" s="35"/>
+      <c r="X273" s="35"/>
+      <c r="Y273" s="35"/>
+      <c r="Z273" s="35"/>
+      <c r="AA273" s="35"/>
+    </row>
+    <row r="274" spans="1:27" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="36"/>
+      <c r="B274" s="36"/>
+      <c r="C274" s="36"/>
+      <c r="D274" s="36"/>
+      <c r="E274" s="36"/>
+      <c r="F274" s="36"/>
+      <c r="G274" s="36"/>
+      <c r="H274" s="36"/>
+      <c r="I274" s="36"/>
+      <c r="J274" s="36"/>
+      <c r="K274" s="36"/>
+      <c r="L274" s="36"/>
+      <c r="M274" s="36"/>
+      <c r="N274" s="36"/>
+      <c r="O274" s="36"/>
+      <c r="P274" s="36"/>
+      <c r="Q274" s="36"/>
+      <c r="R274" s="36"/>
+      <c r="S274" s="36"/>
+      <c r="T274" s="36"/>
+      <c r="U274" s="36"/>
+      <c r="V274" s="36"/>
+      <c r="W274" s="36"/>
+      <c r="X274" s="36"/>
+      <c r="Y274" s="36"/>
+    </row>
+    <row r="275" spans="1:27" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="36"/>
+      <c r="B275" s="36"/>
+      <c r="C275" s="36"/>
+      <c r="D275" s="36"/>
+      <c r="E275" s="36"/>
+      <c r="F275" s="36"/>
+      <c r="G275" s="36"/>
+      <c r="H275" s="36"/>
+      <c r="I275" s="36"/>
+      <c r="J275" s="36"/>
+      <c r="K275" s="36"/>
+      <c r="L275" s="36"/>
+      <c r="M275" s="36"/>
+      <c r="N275" s="36"/>
+      <c r="O275" s="36"/>
+      <c r="P275" s="36"/>
+      <c r="Q275" s="36"/>
+      <c r="R275" s="36"/>
+      <c r="S275" s="36"/>
+      <c r="T275" s="36"/>
+      <c r="U275" s="36"/>
+      <c r="V275" s="36"/>
+      <c r="W275" s="36"/>
+      <c r="X275" s="36"/>
+      <c r="Y275" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="H273:R273"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="A268:K268"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="T1:U3"/>
     <mergeCell ref="A4:U4"/>
     <mergeCell ref="A6:A8"/>
@@ -15357,25 +15411,14 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="H272:R272"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="A267:K267"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
   </mergeCells>
-  <conditionalFormatting sqref="B10:B141 B145:B262 B266">
+  <conditionalFormatting sqref="B10:B141 B145:B262 B267">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" scale="10" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="268" max="16383" man="1"/>
+    <brk id="269" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/app/routes/generate-reports/.server/workbooks/report.xlsx
+++ b/app/routes/generate-reports/.server/workbooks/report.xlsx
@@ -15,9 +15,9 @@
     <sheet name="Лист 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Лист 1'!$A$9:$U$271</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Лист 1'!$A$9:$U$272</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="386">
   <si>
     <t>Приложение  к распоряжению №___ от________</t>
   </si>
@@ -1182,6 +1182,9 @@
   </si>
   <si>
     <t>ТП-281</t>
+  </si>
+  <si>
+    <t>ТП-282П</t>
   </si>
 </sst>
 </file>
@@ -1450,7 +1453,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1558,6 +1561,21 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1565,19 +1583,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -1963,10 +1972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMI275"/>
+  <dimension ref="A1:AMI276"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A261" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E266" sqref="E266"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A259" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="K266" sqref="K266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1983,7 +1992,7 @@
     <col min="11" max="11" width="20.85546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="11.5703125" style="1" customWidth="1"/>
     <col min="13" max="13" width="14" style="1" customWidth="1"/>
-    <col min="14" max="14" width="26.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="21.28515625" style="1" customWidth="1"/>
     <col min="15" max="15" width="15.85546875" style="1" customWidth="1"/>
     <col min="16" max="16" width="17.28515625" style="1" customWidth="1"/>
     <col min="17" max="19" width="13.28515625" style="1" customWidth="1"/>
@@ -1994,154 +2003,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="U1" s="39"/>
+      <c r="T1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="44"/>
     </row>
     <row r="2" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
     </row>
     <row r="3" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
     </row>
     <row r="4" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
     </row>
     <row r="5" spans="1:22" ht="47.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:22" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41" t="s">
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="41" t="s">
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41" t="s">
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="41" t="s">
+      <c r="P6" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="41" t="s">
+      <c r="Q6" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41" t="s">
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41" t="s">
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41" t="s">
+      <c r="G7" s="42"/>
+      <c r="H7" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="41" t="s">
+      <c r="J7" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="41" t="s">
+      <c r="K7" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="41" t="s">
+      <c r="L7" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="41" t="s">
+      <c r="M7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="41" t="s">
+      <c r="N7" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41" t="s">
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41" t="s">
+      <c r="R7" s="42"/>
+      <c r="S7" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
     </row>
     <row r="8" spans="1:22" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
       <c r="Q8" s="2" t="s">
         <v>24</v>
       </c>
@@ -2154,7 +2163,7 @@
       <c r="T8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U8" s="41"/>
+      <c r="U8" s="42"/>
       <c r="V8" s="5"/>
     </row>
     <row r="9" spans="1:22" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11907,14 +11916,14 @@
       <c r="K202" s="2"/>
       <c r="L202" s="11"/>
       <c r="M202" s="11">
-        <f t="shared" ref="M202:M267" si="13">L202</f>
+        <f t="shared" ref="M202:M268" si="13">L202</f>
         <v>0</v>
       </c>
       <c r="N202" s="11" t="s">
         <v>51</v>
       </c>
       <c r="O202" s="12">
-        <f t="shared" ref="O202:O267" si="14">H202-L202</f>
+        <f t="shared" ref="O202:O268" si="14">H202-L202</f>
         <v>0</v>
       </c>
       <c r="P202" s="13">
@@ -15140,220 +15149,243 @@
       <c r="V266" s="5"/>
     </row>
     <row r="267" spans="1:22" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="37"/>
-      <c r="B267" s="38"/>
-      <c r="C267" s="37"/>
-      <c r="D267" s="37"/>
-      <c r="E267" s="37"/>
-      <c r="F267" s="37"/>
-      <c r="G267" s="38"/>
-      <c r="H267" s="38">
-        <v>0</v>
-      </c>
-      <c r="I267" s="38"/>
-      <c r="J267" s="38"/>
-      <c r="K267" s="25" t="s">
+      <c r="A267" s="39">
+        <v>258</v>
+      </c>
+      <c r="B267" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="C267" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D267" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="E267" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="F267" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G267" s="40">
+        <v>1</v>
+      </c>
+      <c r="H267" s="40"/>
+      <c r="I267" s="11">
+        <f>H267-J267</f>
+        <v>0</v>
+      </c>
+      <c r="J267" s="40"/>
+      <c r="K267" s="25"/>
+      <c r="L267" s="25"/>
+      <c r="M267" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N267" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="O267" s="25">
+        <v>0</v>
+      </c>
+      <c r="P267" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q267" s="25"/>
+      <c r="R267" s="25"/>
+      <c r="S267" s="25"/>
+      <c r="T267" s="25"/>
+      <c r="U267" s="25"/>
+      <c r="V267" s="5"/>
+    </row>
+    <row r="268" spans="1:22" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="37"/>
+      <c r="B268" s="38"/>
+      <c r="C268" s="37"/>
+      <c r="D268" s="37"/>
+      <c r="E268" s="37"/>
+      <c r="F268" s="37"/>
+      <c r="G268" s="38"/>
+      <c r="H268" s="38">
+        <v>0</v>
+      </c>
+      <c r="I268" s="38"/>
+      <c r="J268" s="38"/>
+      <c r="K268" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="L267" s="25"/>
-      <c r="M267" s="12">
+      <c r="L268" s="25"/>
+      <c r="M268" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N267" s="12" t="s">
+      <c r="N268" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="O267" s="12">
+      <c r="O268" s="12">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P267" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q267" s="26"/>
-      <c r="R267" s="26"/>
-      <c r="S267" s="26"/>
-      <c r="T267" s="26"/>
-      <c r="U267" s="23"/>
-    </row>
-    <row r="268" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="45" t="s">
+      <c r="P268" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q268" s="26"/>
+      <c r="R268" s="26"/>
+      <c r="S268" s="26"/>
+      <c r="T268" s="26"/>
+      <c r="U268" s="23"/>
+    </row>
+    <row r="269" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="43" t="s">
         <v>376</v>
       </c>
-      <c r="B268" s="45"/>
-      <c r="C268" s="45"/>
-      <c r="D268" s="45"/>
-      <c r="E268" s="45"/>
-      <c r="F268" s="45"/>
-      <c r="G268" s="45"/>
-      <c r="H268" s="45"/>
-      <c r="I268" s="45"/>
-      <c r="J268" s="45"/>
-      <c r="K268" s="45"/>
-      <c r="L268" s="11"/>
-      <c r="M268" s="11">
-        <f t="shared" ref="M268" si="17">L268</f>
-        <v>0</v>
-      </c>
-      <c r="N268" s="11"/>
-      <c r="O268" s="11"/>
-      <c r="P268" s="27"/>
-      <c r="Q268" s="14"/>
-      <c r="R268" s="14"/>
-      <c r="S268" s="14"/>
-      <c r="T268" s="14"/>
-      <c r="U268" s="19"/>
-      <c r="V268" s="5"/>
-    </row>
-    <row r="269" spans="1:22" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="28"/>
-      <c r="B269" s="29" t="s">
+      <c r="B269" s="43"/>
+      <c r="C269" s="43"/>
+      <c r="D269" s="43"/>
+      <c r="E269" s="43"/>
+      <c r="F269" s="43"/>
+      <c r="G269" s="43"/>
+      <c r="H269" s="43"/>
+      <c r="I269" s="43"/>
+      <c r="J269" s="43"/>
+      <c r="K269" s="43"/>
+      <c r="L269" s="11"/>
+      <c r="M269" s="11">
+        <f t="shared" ref="M269" si="17">L269</f>
+        <v>0</v>
+      </c>
+      <c r="N269" s="11"/>
+      <c r="O269" s="11"/>
+      <c r="P269" s="27"/>
+      <c r="Q269" s="14"/>
+      <c r="R269" s="14"/>
+      <c r="S269" s="14"/>
+      <c r="T269" s="14"/>
+      <c r="U269" s="19"/>
+      <c r="V269" s="5"/>
+    </row>
+    <row r="270" spans="1:22" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="28"/>
+      <c r="B270" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="C269" s="28"/>
-      <c r="D269" s="28"/>
-      <c r="E269" s="28"/>
-      <c r="F269" s="8"/>
-      <c r="G269" s="28">
-        <f>SUM(G10:G266)</f>
-        <v>22278</v>
-      </c>
-      <c r="H269" s="28">
-        <f>SUM(H10:H266)</f>
-        <v>0</v>
-      </c>
-      <c r="I269" s="28">
-        <f>SUM(I10:I266)</f>
-        <v>0</v>
-      </c>
-      <c r="J269" s="28">
-        <f>SUM(J10:J266)</f>
-        <v>0</v>
-      </c>
-      <c r="K269" s="28">
+      <c r="C270" s="28"/>
+      <c r="D270" s="28"/>
+      <c r="E270" s="28"/>
+      <c r="F270" s="8"/>
+      <c r="G270" s="28">
+        <f>SUM(G10:G267)</f>
+        <v>22279</v>
+      </c>
+      <c r="H270" s="28">
+        <f>SUM(H10:H267)</f>
+        <v>0</v>
+      </c>
+      <c r="I270" s="28">
+        <f>SUM(I10:I267)</f>
+        <v>0</v>
+      </c>
+      <c r="J270" s="28">
+        <f>SUM(J10:J267)</f>
+        <v>0</v>
+      </c>
+      <c r="K270" s="28">
         <f>SUM(K10:K266)</f>
         <v>0</v>
       </c>
-      <c r="L269" s="28">
-        <f>SUM(L10:L268)</f>
-        <v>0</v>
-      </c>
-      <c r="M269" s="28">
-        <f>SUM(M10:M268)</f>
-        <v>0</v>
-      </c>
-      <c r="N269" s="8"/>
-      <c r="O269" s="28">
-        <f>SUM(O10:O268)-L268</f>
-        <v>0</v>
-      </c>
-      <c r="P269" s="28">
-        <f>SUM(P10:P268)</f>
-        <v>0</v>
-      </c>
-      <c r="Q269" s="28">
-        <f>SUM(Q10:Q268)</f>
-        <v>0</v>
-      </c>
-      <c r="R269" s="28">
-        <f>SUM(R10:R268)</f>
-        <v>0</v>
-      </c>
-      <c r="S269" s="28">
-        <f>SUM(S10:S268)</f>
-        <v>0</v>
-      </c>
-      <c r="T269" s="28">
-        <f>SUM(T10:T268)</f>
-        <v>0</v>
-      </c>
-      <c r="U269" s="28"/>
-    </row>
-    <row r="270" spans="1:22" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B270" s="31" t="s">
-        <v>378</v>
-      </c>
-      <c r="G270" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="H270" s="33">
-        <f>H267+I269+J269</f>
-        <v>0</v>
-      </c>
-      <c r="I270" s="34"/>
-      <c r="M270" s="18"/>
+      <c r="L270" s="28">
+        <f>SUM(L10:L269)</f>
+        <v>0</v>
+      </c>
+      <c r="M270" s="28">
+        <f>SUM(M10:M269)</f>
+        <v>0</v>
+      </c>
+      <c r="N270" s="8"/>
+      <c r="O270" s="28">
+        <f>SUM(O10:O269)-L269</f>
+        <v>0</v>
+      </c>
+      <c r="P270" s="28">
+        <f>SUM(P10:P269)</f>
+        <v>0</v>
+      </c>
+      <c r="Q270" s="28">
+        <f>SUM(Q10:Q269)</f>
+        <v>0</v>
+      </c>
+      <c r="R270" s="28">
+        <f>SUM(R10:R269)</f>
+        <v>0</v>
+      </c>
+      <c r="S270" s="28">
+        <f>SUM(S10:S269)</f>
+        <v>0</v>
+      </c>
+      <c r="T270" s="28">
+        <f>SUM(T10:T269)</f>
+        <v>0</v>
+      </c>
+      <c r="U270" s="28"/>
     </row>
     <row r="271" spans="1:22" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="31" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G271" s="32" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H271" s="33">
-        <f>H270+P269</f>
+        <f>H268+I270+J270</f>
         <v>0</v>
       </c>
       <c r="I271" s="34"/>
       <c r="M271" s="18"/>
     </row>
-    <row r="273" spans="1:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="35"/>
-      <c r="B273" s="35"/>
-      <c r="C273" s="35"/>
-      <c r="D273" s="35"/>
-      <c r="E273" s="35"/>
-      <c r="F273" s="35"/>
-      <c r="G273" s="35"/>
-      <c r="H273" s="44" t="s">
+    <row r="272" spans="1:22" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B272" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="G272" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="H272" s="33">
+        <f>H271+P270</f>
+        <v>0</v>
+      </c>
+      <c r="I272" s="34"/>
+      <c r="M272" s="18"/>
+    </row>
+    <row r="274" spans="1:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="35"/>
+      <c r="B274" s="35"/>
+      <c r="C274" s="35"/>
+      <c r="D274" s="35"/>
+      <c r="E274" s="35"/>
+      <c r="F274" s="35"/>
+      <c r="G274" s="35"/>
+      <c r="H274" s="41" t="s">
         <v>382</v>
       </c>
-      <c r="I273" s="44"/>
-      <c r="J273" s="44"/>
-      <c r="K273" s="44"/>
-      <c r="L273" s="44"/>
-      <c r="M273" s="44"/>
-      <c r="N273" s="44"/>
-      <c r="O273" s="44"/>
-      <c r="P273" s="44"/>
-      <c r="Q273" s="44"/>
-      <c r="R273" s="44"/>
-      <c r="S273" s="35"/>
-      <c r="T273" s="35"/>
-      <c r="U273" s="35"/>
-      <c r="V273" s="35"/>
-      <c r="W273" s="35"/>
-      <c r="X273" s="35"/>
-      <c r="Y273" s="35"/>
-      <c r="Z273" s="35"/>
-      <c r="AA273" s="35"/>
-    </row>
-    <row r="274" spans="1:27" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="36"/>
-      <c r="B274" s="36"/>
-      <c r="C274" s="36"/>
-      <c r="D274" s="36"/>
-      <c r="E274" s="36"/>
-      <c r="F274" s="36"/>
-      <c r="G274" s="36"/>
-      <c r="H274" s="36"/>
-      <c r="I274" s="36"/>
-      <c r="J274" s="36"/>
-      <c r="K274" s="36"/>
-      <c r="L274" s="36"/>
-      <c r="M274" s="36"/>
-      <c r="N274" s="36"/>
-      <c r="O274" s="36"/>
-      <c r="P274" s="36"/>
-      <c r="Q274" s="36"/>
-      <c r="R274" s="36"/>
-      <c r="S274" s="36"/>
-      <c r="T274" s="36"/>
-      <c r="U274" s="36"/>
-      <c r="V274" s="36"/>
-      <c r="W274" s="36"/>
-      <c r="X274" s="36"/>
-      <c r="Y274" s="36"/>
+      <c r="I274" s="41"/>
+      <c r="J274" s="41"/>
+      <c r="K274" s="41"/>
+      <c r="L274" s="41"/>
+      <c r="M274" s="41"/>
+      <c r="N274" s="41"/>
+      <c r="O274" s="41"/>
+      <c r="P274" s="41"/>
+      <c r="Q274" s="41"/>
+      <c r="R274" s="41"/>
+      <c r="S274" s="35"/>
+      <c r="T274" s="35"/>
+      <c r="U274" s="35"/>
+      <c r="V274" s="35"/>
+      <c r="W274" s="35"/>
+      <c r="X274" s="35"/>
+      <c r="Y274" s="35"/>
+      <c r="Z274" s="35"/>
+      <c r="AA274" s="35"/>
     </row>
     <row r="275" spans="1:27" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="36"/>
@@ -15382,19 +15414,35 @@
       <c r="X275" s="36"/>
       <c r="Y275" s="36"/>
     </row>
+    <row r="276" spans="1:27" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="36"/>
+      <c r="B276" s="36"/>
+      <c r="C276" s="36"/>
+      <c r="D276" s="36"/>
+      <c r="E276" s="36"/>
+      <c r="F276" s="36"/>
+      <c r="G276" s="36"/>
+      <c r="H276" s="36"/>
+      <c r="I276" s="36"/>
+      <c r="J276" s="36"/>
+      <c r="K276" s="36"/>
+      <c r="L276" s="36"/>
+      <c r="M276" s="36"/>
+      <c r="N276" s="36"/>
+      <c r="O276" s="36"/>
+      <c r="P276" s="36"/>
+      <c r="Q276" s="36"/>
+      <c r="R276" s="36"/>
+      <c r="S276" s="36"/>
+      <c r="T276" s="36"/>
+      <c r="U276" s="36"/>
+      <c r="V276" s="36"/>
+      <c r="W276" s="36"/>
+      <c r="X276" s="36"/>
+      <c r="Y276" s="36"/>
+    </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="H273:R273"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="A268:K268"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
     <mergeCell ref="T1:U3"/>
     <mergeCell ref="A4:U4"/>
     <mergeCell ref="A6:A8"/>
@@ -15411,14 +15459,25 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
+    <mergeCell ref="H274:R274"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="A269:K269"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
   </mergeCells>
-  <conditionalFormatting sqref="B10:B141 B145:B262 B267">
+  <conditionalFormatting sqref="B10:B141 B145:B262 B268">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" scale="10" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="269" max="16383" man="1"/>
+    <brk id="270" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>